--- a/capiq_data/in_process_data/IQ18749.xlsx
+++ b/capiq_data/in_process_data/IQ18749.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DD5F4B-2217-44BB-8657-9C82C2781338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D57ABEF-8864-4D8B-9763-682CA1697081}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"32455c71-7977-4035-a7ea-ce451437e3c3"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c1694155-136c-40a4-accc-4ea5c6121b94"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>416</v>
+        <v>-545.14</v>
       </c>
       <c r="D2">
-        <v>12947</v>
+        <v>972.36</v>
       </c>
       <c r="E2">
-        <v>1587</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2630</v>
+        <v>224.3</v>
       </c>
       <c r="G2">
-        <v>13747</v>
+        <v>1361.1289999999999</v>
       </c>
       <c r="H2">
-        <v>18797</v>
+        <v>2135.1689999999999</v>
       </c>
       <c r="I2">
-        <v>8051</v>
+        <v>485.38299999999998</v>
       </c>
       <c r="J2">
-        <v>184</v>
+        <v>2114.373</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10372</v>
+        <v>974.95600000000002</v>
       </c>
       <c r="O2">
-        <v>11933</v>
+        <v>3102.42</v>
       </c>
       <c r="P2">
-        <v>641</v>
+        <v>2144.0410000000002</v>
       </c>
       <c r="Q2">
-        <v>2238</v>
+        <v>175.387</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>33700</v>
+        <v>9000</v>
       </c>
       <c r="T2">
-        <v>6864</v>
+        <v>-967.25099999999998</v>
       </c>
       <c r="U2">
-        <v>3777</v>
+        <v>822.43499999999995</v>
       </c>
       <c r="V2">
-        <v>3488</v>
+        <v>247.65299999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-43</v>
+        <v>1.05</v>
       </c>
       <c r="Y2">
-        <v>457</v>
+        <v>13.090999999999999</v>
       </c>
       <c r="Z2">
-        <v>-617</v>
+        <v>-65.594999999999999</v>
       </c>
       <c r="AA2">
-        <v>416</v>
+        <v>-545.14</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>201</v>
+        <v>-234.131</v>
       </c>
       <c r="D3">
-        <v>9857</v>
+        <v>700.35599999999999</v>
       </c>
       <c r="E3">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2249</v>
+        <v>182.59700000000001</v>
       </c>
       <c r="G3">
-        <v>11288</v>
+        <v>855.71</v>
       </c>
       <c r="H3">
-        <v>16882</v>
+        <v>1470.155</v>
       </c>
       <c r="I3">
-        <v>5540</v>
+        <v>257.411</v>
       </c>
       <c r="J3">
-        <v>291</v>
+        <v>2118.8560000000002</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-111</v>
+        <v>-4.5750000000000002</v>
       </c>
       <c r="N3">
-        <v>7730</v>
+        <v>604.71</v>
       </c>
       <c r="O3">
-        <v>9535</v>
+        <v>2723.5659999999998</v>
       </c>
       <c r="P3">
-        <v>1333</v>
+        <v>2138.1610000000001</v>
       </c>
       <c r="Q3">
-        <v>-1136</v>
+        <v>-375.49099999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>7347</v>
+        <v>-1253.4110000000001</v>
       </c>
       <c r="U3">
-        <v>2641</v>
+        <v>446.94400000000002</v>
       </c>
       <c r="V3">
-        <v>-1586</v>
+        <v>-406.98399999999998</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>24</v>
+        <v>11.257999999999999</v>
       </c>
       <c r="Y3">
-        <v>785</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>827</v>
+        <v>63.988</v>
       </c>
       <c r="AA3">
-        <v>201</v>
+        <v>-234.131</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>191</v>
+        <v>-168.35900000000001</v>
       </c>
       <c r="D4">
-        <v>9913</v>
+        <v>667.625</v>
       </c>
       <c r="E4">
-        <v>1438</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2388</v>
+        <v>179.67699999999999</v>
       </c>
       <c r="G4">
-        <v>11279</v>
+        <v>809.35699999999997</v>
       </c>
       <c r="H4">
-        <v>17941</v>
+        <v>1345.0360000000001</v>
       </c>
       <c r="I4">
-        <v>5721</v>
+        <v>257.976</v>
       </c>
       <c r="J4">
-        <v>329</v>
+        <v>2126.7269999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -935,81 +1055,81 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-140</v>
+        <v>-4.0940000000000003</v>
       </c>
       <c r="N4">
-        <v>8045</v>
+        <v>648.24</v>
       </c>
       <c r="O4">
-        <v>10176</v>
+        <v>2774.9670000000001</v>
       </c>
       <c r="P4">
-        <v>1808</v>
+        <v>2145.0639999999999</v>
       </c>
       <c r="Q4">
-        <v>-594</v>
+        <v>16.004999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>7765</v>
+        <v>-1429.931</v>
       </c>
       <c r="U4">
-        <v>2047</v>
+        <v>462.94900000000001</v>
       </c>
       <c r="V4">
-        <v>423</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-91</v>
+        <v>3.55</v>
       </c>
       <c r="Y4">
-        <v>1266</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>-49</v>
+        <v>40.228000000000002</v>
       </c>
       <c r="AA4">
-        <v>191</v>
+        <v>-168.35900000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>-169.874</v>
       </c>
       <c r="D5">
-        <v>10876</v>
+        <v>639.28099999999995</v>
       </c>
       <c r="E5">
-        <v>1496</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2551</v>
+        <v>162.19200000000001</v>
       </c>
       <c r="G5">
-        <v>11904</v>
+        <v>870.27599999999995</v>
       </c>
       <c r="H5">
-        <v>19054</v>
+        <v>1346.3679999999999</v>
       </c>
       <c r="I5">
-        <v>6552</v>
+        <v>236.99199999999999</v>
       </c>
       <c r="J5">
-        <v>341</v>
+        <v>2172.1640000000002</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1018,81 +1138,81 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-91</v>
+        <v>-6.4660000000000002</v>
       </c>
       <c r="N5">
-        <v>8978</v>
+        <v>628.19799999999998</v>
       </c>
       <c r="O5">
-        <v>11288</v>
+        <v>2800.3620000000001</v>
       </c>
       <c r="P5">
-        <v>1897</v>
+        <v>2188.2179999999998</v>
       </c>
       <c r="Q5">
-        <v>776</v>
+        <v>-30.641999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>7766</v>
+        <v>-1453.9939999999999</v>
       </c>
       <c r="U5">
-        <v>2823</v>
+        <v>432.30700000000002</v>
       </c>
       <c r="V5">
-        <v>797</v>
+        <v>-64.403000000000006</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-82</v>
+        <v>94.465999999999994</v>
       </c>
       <c r="Y5">
-        <v>1429</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>677</v>
+        <v>-82.093000000000004</v>
       </c>
       <c r="AA5">
-        <v>63</v>
+        <v>-169.874</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>177</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="D6">
-        <v>17431</v>
+        <v>1115.171</v>
       </c>
       <c r="E6">
-        <v>2571</v>
+        <v>65.465000000000003</v>
       </c>
       <c r="F6">
-        <v>3600</v>
+        <v>274.04899999999998</v>
       </c>
       <c r="G6">
-        <v>17490</v>
+        <v>1207.92</v>
       </c>
       <c r="H6">
-        <v>25278</v>
+        <v>1637.547</v>
       </c>
       <c r="I6">
-        <v>11145</v>
+        <v>444.74799999999999</v>
       </c>
       <c r="J6">
-        <v>255</v>
+        <v>2095.7350000000001</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14896</v>
+        <v>921.41399999999999</v>
       </c>
       <c r="O6">
-        <v>17521</v>
+        <v>3077.547</v>
       </c>
       <c r="P6">
-        <v>1544</v>
+        <v>2117.2199999999998</v>
       </c>
       <c r="Q6">
-        <v>2446</v>
+        <v>107.97499999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>56200</v>
+        <v>7800</v>
       </c>
       <c r="T6">
-        <v>7757</v>
+        <v>-1440</v>
       </c>
       <c r="U6">
-        <v>5269</v>
+        <v>540.28200000000004</v>
       </c>
       <c r="V6">
-        <v>4269</v>
+        <v>349.12</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-333</v>
+        <v>-2.3929999999999998</v>
       </c>
       <c r="Y6">
-        <v>1160</v>
+        <v>6.4930000000000003</v>
       </c>
       <c r="Z6">
-        <v>-870</v>
+        <v>-225.096</v>
       </c>
       <c r="AA6">
-        <v>177</v>
+        <v>5.0869999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>130</v>
+        <v>-23.15</v>
       </c>
       <c r="D7">
-        <v>13185</v>
+        <v>847.42200000000003</v>
       </c>
       <c r="E7">
-        <v>1813</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>3158</v>
+        <v>223.125</v>
       </c>
       <c r="G7">
-        <v>12154</v>
+        <v>954.27300000000002</v>
       </c>
       <c r="H7">
-        <v>20339</v>
+        <v>1361.9280000000001</v>
       </c>
       <c r="I7">
-        <v>6886</v>
+        <v>314.61599999999999</v>
       </c>
       <c r="J7">
-        <v>323</v>
+        <v>2147.4989999999998</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-153</v>
+        <v>-4.5629999999999997</v>
       </c>
       <c r="N7">
-        <v>10488</v>
+        <v>657.03</v>
       </c>
       <c r="O7">
-        <v>13068</v>
+        <v>2809.3029999999999</v>
       </c>
       <c r="P7">
-        <v>2363</v>
+        <v>2166.2310000000002</v>
       </c>
       <c r="Q7">
-        <v>-2981</v>
+        <v>-243.59299999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>7271</v>
+        <v>-1447.375</v>
       </c>
       <c r="U7">
-        <v>2288</v>
+        <v>296.68900000000002</v>
       </c>
       <c r="V7">
-        <v>-2438</v>
+        <v>-241.03299999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-1005</v>
+        <v>2.8460000000000001</v>
       </c>
       <c r="Y7">
-        <v>1557</v>
+        <v>4.774</v>
       </c>
       <c r="Z7">
-        <v>886</v>
+        <v>2.3479999999999999</v>
       </c>
       <c r="AA7">
-        <v>130</v>
+        <v>-23.15</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>-93.552999999999997</v>
       </c>
       <c r="D8">
-        <v>12834</v>
+        <v>805.60500000000002</v>
       </c>
       <c r="E8">
-        <v>2035</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3346</v>
+        <v>218.167</v>
       </c>
       <c r="G8">
-        <v>11793</v>
+        <v>1043.577</v>
       </c>
       <c r="H8">
-        <v>21022</v>
+        <v>1435.047</v>
       </c>
       <c r="I8">
-        <v>7072</v>
+        <v>296.36799999999999</v>
       </c>
       <c r="J8">
-        <v>489</v>
+        <v>2215.2179999999998</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1267,81 +1387,81 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-141</v>
+        <v>-3.4319999999999999</v>
       </c>
       <c r="N8">
-        <v>10964</v>
+        <v>660.53200000000004</v>
       </c>
       <c r="O8">
-        <v>13517</v>
+        <v>2878.9580000000001</v>
       </c>
       <c r="P8">
-        <v>2385</v>
+        <v>2232.8319999999999</v>
       </c>
       <c r="Q8">
-        <v>47</v>
+        <v>-26.251000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>7505</v>
+        <v>-1443.9110000000001</v>
       </c>
       <c r="U8">
-        <v>2335</v>
+        <v>270.43799999999999</v>
       </c>
       <c r="V8">
-        <v>594</v>
+        <v>4.6369999999999996</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>67</v>
+        <v>39.433999999999997</v>
       </c>
       <c r="Y8">
-        <v>1569</v>
+        <v>3.2080000000000002</v>
       </c>
       <c r="Z8">
-        <v>686</v>
+        <v>-86.540999999999997</v>
       </c>
       <c r="AA8">
-        <v>7</v>
+        <v>-93.552999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-274</v>
+        <v>-35.08</v>
       </c>
       <c r="D9">
-        <v>13806</v>
+        <v>851.29899999999998</v>
       </c>
       <c r="E9">
-        <v>2392</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3487</v>
+        <v>216.167</v>
       </c>
       <c r="G9">
-        <v>13118</v>
+        <v>1119.607</v>
       </c>
       <c r="H9">
-        <v>22834</v>
+        <v>1497.405</v>
       </c>
       <c r="I9">
-        <v>8369</v>
+        <v>347.51900000000001</v>
       </c>
       <c r="J9">
-        <v>606</v>
+        <v>2263.5349999999999</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,81 +1470,81 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-144</v>
+        <v>-4.1260000000000003</v>
       </c>
       <c r="N9">
-        <v>12605</v>
+        <v>710.99800000000005</v>
       </c>
       <c r="O9">
-        <v>15281</v>
+        <v>2975.8440000000001</v>
       </c>
       <c r="P9">
-        <v>2549</v>
+        <v>2277.98</v>
       </c>
       <c r="Q9">
-        <v>645</v>
+        <v>57.125999999999998</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>7553</v>
+        <v>-1478.4390000000001</v>
       </c>
       <c r="U9">
-        <v>2980</v>
+        <v>327.56400000000002</v>
       </c>
       <c r="V9">
-        <v>943</v>
+        <v>38.107999999999997</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>31</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="Y9">
-        <v>1754</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="Z9">
-        <v>384</v>
+        <v>22.434999999999999</v>
       </c>
       <c r="AA9">
-        <v>-274</v>
+        <v>-35.08</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>2.6509999999999998</v>
       </c>
       <c r="D10">
-        <v>21268</v>
+        <v>1428.61</v>
       </c>
       <c r="E10">
-        <v>3817</v>
+        <v>109.6</v>
       </c>
       <c r="F10">
-        <v>5131</v>
+        <v>335.15899999999999</v>
       </c>
       <c r="G10">
-        <v>21296</v>
+        <v>1615.6759999999999</v>
       </c>
       <c r="H10">
-        <v>32555</v>
+        <v>1990.4490000000001</v>
       </c>
       <c r="I10">
-        <v>13318</v>
+        <v>618.12800000000004</v>
       </c>
       <c r="J10">
-        <v>3084</v>
+        <v>2232.547</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19002</v>
+        <v>1065.9580000000001</v>
       </c>
       <c r="O10">
-        <v>24363</v>
+        <v>3343.2629999999999</v>
       </c>
       <c r="P10">
-        <v>4409</v>
+        <v>2246.85</v>
       </c>
       <c r="Q10">
-        <v>5104</v>
+        <v>410.69</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>88400</v>
+        <v>7500</v>
       </c>
       <c r="T10">
-        <v>8192</v>
+        <v>-1352.8140000000001</v>
       </c>
       <c r="U10">
-        <v>8084</v>
+        <v>738.25400000000002</v>
       </c>
       <c r="V10">
-        <v>5081</v>
+        <v>372.57900000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>3166</v>
+        <v>62.701999999999998</v>
       </c>
       <c r="Y10">
-        <v>746</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="Z10">
-        <v>-1022</v>
+        <v>-20.763000000000002</v>
       </c>
       <c r="AA10">
-        <v>98</v>
+        <v>2.6509999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>82</v>
+        <v>-10.121</v>
       </c>
       <c r="D11">
-        <v>16070</v>
+        <v>1083.559</v>
       </c>
       <c r="E11">
-        <v>2516</v>
+        <v>88.914000000000001</v>
       </c>
       <c r="F11">
-        <v>4269</v>
+        <v>270.58199999999999</v>
       </c>
       <c r="G11">
-        <v>16313</v>
+        <v>1344.4960000000001</v>
       </c>
       <c r="H11">
-        <v>28377</v>
+        <v>1705.933</v>
       </c>
       <c r="I11">
-        <v>8916</v>
+        <v>393.69600000000003</v>
       </c>
       <c r="J11">
-        <v>3040</v>
+        <v>2266.6509999999998</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-182</v>
+        <v>-3.2210000000000001</v>
       </c>
       <c r="N11">
-        <v>14332</v>
+        <v>698.57899999999995</v>
       </c>
       <c r="O11">
-        <v>19945</v>
+        <v>2994.9969999999998</v>
       </c>
       <c r="P11">
-        <v>5230</v>
+        <v>2278.4490000000001</v>
       </c>
       <c r="Q11">
-        <v>-3603</v>
+        <v>-242.48099999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>8432</v>
+        <v>-1289.0640000000001</v>
       </c>
       <c r="U11">
-        <v>4481</v>
+        <v>495.77300000000002</v>
       </c>
       <c r="V11">
-        <v>-2372</v>
+        <v>-251.78200000000001</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-157</v>
+        <v>35.334000000000003</v>
       </c>
       <c r="Y11">
-        <v>1054</v>
+        <v>0.72</v>
       </c>
       <c r="Z11">
-        <v>-177</v>
+        <v>-24.1</v>
       </c>
       <c r="AA11">
-        <v>82</v>
+        <v>-10.121</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-7</v>
+        <v>-43.314</v>
       </c>
       <c r="D12">
-        <v>15704</v>
+        <v>1099.912</v>
       </c>
       <c r="E12">
-        <v>2861</v>
+        <v>84.375</v>
       </c>
       <c r="F12">
-        <v>4495</v>
+        <v>273.928</v>
       </c>
       <c r="G12">
-        <v>16285</v>
+        <v>1251.2539999999999</v>
       </c>
       <c r="H12">
-        <v>29623</v>
+        <v>1596.854</v>
       </c>
       <c r="I12">
-        <v>8990</v>
+        <v>445.09800000000001</v>
       </c>
       <c r="J12">
-        <v>3042</v>
+        <v>2048.3980000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1599,81 +1719,81 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-290</v>
+        <v>-280.91800000000001</v>
       </c>
       <c r="N12">
-        <v>14735</v>
+        <v>769.38400000000001</v>
       </c>
       <c r="O12">
-        <v>20890</v>
+        <v>2843.69</v>
       </c>
       <c r="P12">
-        <v>5536</v>
+        <v>2057.1840000000002</v>
       </c>
       <c r="Q12">
-        <v>-777</v>
+        <v>145.95500000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>8733</v>
+        <v>-1246.836</v>
       </c>
       <c r="U12">
-        <v>3704</v>
+        <v>641.72799999999995</v>
       </c>
       <c r="V12">
-        <v>880</v>
+        <v>126.024</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-209</v>
+        <v>-227.876</v>
       </c>
       <c r="Y12">
-        <v>1423</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="Z12">
-        <v>-417</v>
+        <v>240.809</v>
       </c>
       <c r="AA12">
-        <v>-7</v>
+        <v>-43.314</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-41</v>
+        <v>15.563000000000001</v>
       </c>
       <c r="D13">
-        <v>17092</v>
+        <v>1134.4559999999999</v>
       </c>
       <c r="E13">
-        <v>3057</v>
+        <v>103.873</v>
       </c>
       <c r="F13">
-        <v>4726</v>
+        <v>285.82100000000003</v>
       </c>
       <c r="G13">
-        <v>17334</v>
+        <v>1410.2</v>
       </c>
       <c r="H13">
-        <v>31861</v>
+        <v>1749.6849999999999</v>
       </c>
       <c r="I13">
-        <v>10037</v>
+        <v>499.18900000000002</v>
       </c>
       <c r="J13">
-        <v>3043</v>
+        <v>2058.0070000000001</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1682,81 +1802,81 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-255</v>
+        <v>-3.4369999999999998</v>
       </c>
       <c r="N13">
-        <v>16135</v>
+        <v>826.75</v>
       </c>
       <c r="O13">
-        <v>22774</v>
+        <v>2907.7190000000001</v>
       </c>
       <c r="P13">
-        <v>6466</v>
+        <v>2065.4810000000002</v>
       </c>
       <c r="Q13">
-        <v>168</v>
+        <v>24.69</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>9087</v>
+        <v>-1158.0340000000001</v>
       </c>
       <c r="U13">
-        <v>3872</v>
+        <v>666.41800000000001</v>
       </c>
       <c r="V13">
-        <v>1388</v>
+        <v>36.817</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-230</v>
+        <v>37.798000000000002</v>
       </c>
       <c r="Y13">
-        <v>2521</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="Z13">
-        <v>-24</v>
+        <v>-49.892000000000003</v>
       </c>
       <c r="AA13">
-        <v>-41</v>
+        <v>15.563000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>240</v>
+        <v>73.153999999999996</v>
       </c>
       <c r="D14">
-        <v>25587</v>
+        <v>1945.7719999999999</v>
       </c>
       <c r="E14">
-        <v>4767</v>
+        <v>125.473</v>
       </c>
       <c r="F14">
-        <v>6781</v>
+        <v>426.83699999999999</v>
       </c>
       <c r="G14">
-        <v>24625</v>
+        <v>1820.809</v>
       </c>
       <c r="H14">
-        <v>40159</v>
+        <v>2162.0329999999999</v>
       </c>
       <c r="I14">
-        <v>15133</v>
+        <v>819.81100000000004</v>
       </c>
       <c r="J14">
-        <v>3191</v>
+        <v>1924.2139999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22980</v>
+        <v>1252.701</v>
       </c>
       <c r="O14">
-        <v>30413</v>
+        <v>3198.14</v>
       </c>
       <c r="P14">
-        <v>5934</v>
+        <v>1929.5889999999999</v>
       </c>
       <c r="Q14">
-        <v>4786</v>
+        <v>435.85500000000002</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>117300</v>
+        <v>7800</v>
       </c>
       <c r="T14">
-        <v>9746</v>
+        <v>-1036.107</v>
       </c>
       <c r="U14">
-        <v>8658</v>
+        <v>1102.2729999999999</v>
       </c>
       <c r="V14">
-        <v>5578</v>
+        <v>480.96300000000002</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>57</v>
+        <v>-177.24199999999999</v>
       </c>
       <c r="Y14">
-        <v>1990</v>
+        <v>1.159</v>
       </c>
       <c r="Z14">
-        <v>95</v>
+        <v>110.72499999999999</v>
       </c>
       <c r="AA14">
-        <v>240</v>
+        <v>73.153999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D15">
-        <v>19741</v>
+        <v>1530</v>
       </c>
       <c r="E15">
-        <v>3945</v>
+        <v>125.883</v>
       </c>
       <c r="F15">
-        <v>5686</v>
+        <v>361</v>
       </c>
       <c r="G15">
-        <v>19327</v>
+        <v>1405.5740000000001</v>
       </c>
       <c r="H15">
-        <v>36364</v>
+        <v>1738.5609999999999</v>
       </c>
       <c r="I15">
-        <v>10590</v>
+        <v>567.56299999999999</v>
       </c>
       <c r="J15">
-        <v>3147</v>
+        <v>1753.462</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-361</v>
+        <v>-156</v>
       </c>
       <c r="N15">
-        <v>18357</v>
+        <v>865.91099999999994</v>
       </c>
       <c r="O15">
-        <v>26036</v>
+        <v>2643.6109999999999</v>
       </c>
       <c r="P15">
-        <v>7595</v>
+        <v>1758.5450000000001</v>
       </c>
       <c r="Q15">
-        <v>-3584</v>
+        <v>-333</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>10328</v>
+        <v>-905.05</v>
       </c>
       <c r="U15">
-        <v>5074</v>
+        <v>768.58699999999999</v>
       </c>
       <c r="V15">
-        <v>-2502</v>
+        <v>-250</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-175</v>
+        <v>-141</v>
       </c>
       <c r="Y15">
-        <v>2770</v>
+        <v>2.61</v>
       </c>
       <c r="Z15">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="AA15">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>-126</v>
+        <v>76</v>
       </c>
       <c r="D16">
-        <v>19340</v>
+        <v>1387</v>
       </c>
       <c r="E16">
-        <v>4125</v>
+        <v>125.64700000000001</v>
       </c>
       <c r="F16">
-        <v>5941</v>
+        <v>341</v>
       </c>
       <c r="G16">
-        <v>18755</v>
+        <v>1561.192</v>
       </c>
       <c r="H16">
-        <v>37898</v>
+        <v>1888.11</v>
       </c>
       <c r="I16">
-        <v>10457</v>
+        <v>585.12400000000002</v>
       </c>
       <c r="J16">
-        <v>3119</v>
+        <v>1747.4880000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1931,81 +2051,81 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-475</v>
+        <v>-1</v>
       </c>
       <c r="N16">
-        <v>18751</v>
+        <v>916.35400000000004</v>
       </c>
       <c r="O16">
-        <v>27296</v>
+        <v>2678.9679999999998</v>
       </c>
       <c r="P16">
-        <v>8550</v>
+        <v>1750.7550000000001</v>
       </c>
       <c r="Q16">
-        <v>-17</v>
+        <v>-68</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>10602</v>
+        <v>-790.85799999999995</v>
       </c>
       <c r="U16">
-        <v>5057</v>
+        <v>701.15</v>
       </c>
       <c r="V16">
-        <v>862</v>
+        <v>143</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-189</v>
+        <v>19</v>
       </c>
       <c r="Y16">
-        <v>3525</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="Z16">
-        <v>626</v>
+        <v>-208</v>
       </c>
       <c r="AA16">
-        <v>-126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-437</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>20579</v>
+        <v>1463</v>
       </c>
       <c r="E17">
-        <v>4373</v>
+        <v>150.76400000000001</v>
       </c>
       <c r="F17">
-        <v>5952</v>
+        <v>356</v>
       </c>
       <c r="G17">
-        <v>18572</v>
+        <v>1692.7840000000001</v>
       </c>
       <c r="H17">
-        <v>40419</v>
+        <v>2108.6680000000001</v>
       </c>
       <c r="I17">
-        <v>11811</v>
+        <v>688.29700000000003</v>
       </c>
       <c r="J17">
-        <v>3099</v>
+        <v>1767.3030000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2014,81 +2134,81 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-440</v>
+        <v>-1</v>
       </c>
       <c r="N17">
-        <v>20842</v>
+        <v>1051.0229999999999</v>
       </c>
       <c r="O17">
-        <v>30083</v>
+        <v>2829.7449999999999</v>
       </c>
       <c r="P17">
-        <v>9708</v>
+        <v>1771.424</v>
       </c>
       <c r="Q17">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>10336</v>
+        <v>-721.077</v>
       </c>
       <c r="U17">
-        <v>5258</v>
+        <v>745.60799999999995</v>
       </c>
       <c r="V17">
-        <v>1766</v>
+        <v>117</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-412</v>
+        <v>7</v>
       </c>
       <c r="Y17">
-        <v>4898</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="Z17">
-        <v>1292</v>
+        <v>15</v>
       </c>
       <c r="AA17">
-        <v>-437</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>214</v>
+        <v>346</v>
       </c>
       <c r="D18">
-        <v>29329</v>
+        <v>2541</v>
       </c>
       <c r="E18">
-        <v>5612</v>
+        <v>187</v>
       </c>
       <c r="F18">
-        <v>8657</v>
+        <v>544</v>
       </c>
       <c r="G18">
-        <v>31327</v>
+        <v>2539</v>
       </c>
       <c r="H18">
-        <v>54505</v>
+        <v>3248</v>
       </c>
       <c r="I18">
-        <v>16459</v>
+        <v>1142</v>
       </c>
       <c r="J18">
-        <v>8265</v>
+        <v>1855</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>28089</v>
+        <v>1620</v>
       </c>
       <c r="O18">
-        <v>43764</v>
+        <v>3475</v>
       </c>
       <c r="P18">
-        <v>14009</v>
+        <v>1857</v>
       </c>
       <c r="Q18">
-        <v>9299</v>
+        <v>557</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>154100</v>
+        <v>9000</v>
       </c>
       <c r="T18">
-        <v>10741</v>
+        <v>-227</v>
       </c>
       <c r="U18">
-        <v>14557</v>
+        <v>1303</v>
       </c>
       <c r="V18">
-        <v>6715</v>
+        <v>557</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>5209</v>
+        <v>17</v>
       </c>
       <c r="Y18">
-        <v>4224</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>-1267</v>
+        <v>-28</v>
       </c>
       <c r="AA18">
-        <v>214</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-57</v>
+        <v>78</v>
       </c>
       <c r="D19">
-        <v>22717</v>
+        <v>1902</v>
       </c>
       <c r="E19">
-        <v>4772</v>
+        <v>155</v>
       </c>
       <c r="F19">
-        <v>7322</v>
+        <v>458</v>
       </c>
       <c r="G19">
-        <v>25922</v>
+        <v>1793</v>
       </c>
       <c r="H19">
-        <v>50075</v>
+        <v>2472</v>
       </c>
       <c r="I19">
-        <v>11917</v>
+        <v>704</v>
       </c>
       <c r="J19">
-        <v>8257</v>
+        <v>1552.3</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-857</v>
+        <v>-265</v>
       </c>
       <c r="N19">
-        <v>23177</v>
+        <v>1073</v>
       </c>
       <c r="O19">
-        <v>39202</v>
+        <v>2634</v>
       </c>
       <c r="P19">
-        <v>17031</v>
+        <v>1555</v>
       </c>
       <c r="Q19">
-        <v>-4320</v>
+        <v>-770</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>10873</v>
+        <v>-162</v>
       </c>
       <c r="U19">
-        <v>10237</v>
+        <v>533</v>
       </c>
       <c r="V19">
-        <v>-1499</v>
+        <v>-294</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-652</v>
+        <v>-256</v>
       </c>
       <c r="Y19">
-        <v>5552</v>
+        <v>0.7</v>
       </c>
       <c r="Z19">
-        <v>-611</v>
+        <v>-156</v>
       </c>
       <c r="AA19">
-        <v>-57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>23185</v>
+        <v>1753</v>
       </c>
       <c r="E20">
-        <v>4920</v>
+        <v>141</v>
       </c>
       <c r="F20">
-        <v>8025</v>
+        <v>450</v>
       </c>
       <c r="G20">
-        <v>26391</v>
+        <v>1926</v>
       </c>
       <c r="H20">
-        <v>52440</v>
+        <v>2601</v>
       </c>
       <c r="I20">
-        <v>12391</v>
+        <v>735</v>
       </c>
       <c r="J20">
-        <v>8250</v>
+        <v>1513.4</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2263,81 +2383,81 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-830</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>23912</v>
+        <v>1144</v>
       </c>
       <c r="O20">
-        <v>40672</v>
+        <v>2665</v>
       </c>
       <c r="P20">
-        <v>17953</v>
+        <v>1522</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>11768</v>
+        <v>-64</v>
       </c>
       <c r="U20">
-        <v>10269</v>
+        <v>629</v>
       </c>
       <c r="V20">
-        <v>1997</v>
+        <v>244</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-691</v>
+        <v>9</v>
       </c>
       <c r="Y20">
-        <v>6892</v>
+        <v>0.6</v>
       </c>
       <c r="Z20">
-        <v>-155</v>
+        <v>-93</v>
       </c>
       <c r="AA20">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>25358</v>
+        <v>1858</v>
       </c>
       <c r="E21">
-        <v>5440</v>
+        <v>168</v>
       </c>
       <c r="F21">
-        <v>8603</v>
+        <v>463</v>
       </c>
       <c r="G21">
-        <v>28849</v>
+        <v>2121</v>
       </c>
       <c r="H21">
-        <v>56230</v>
+        <v>2832</v>
       </c>
       <c r="I21">
-        <v>14437</v>
+        <v>876</v>
       </c>
       <c r="J21">
-        <v>8243</v>
+        <v>1507.3</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2346,81 +2466,81 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>-858</v>
+        <v>-6</v>
       </c>
       <c r="N21">
-        <v>26657</v>
+        <v>1313</v>
       </c>
       <c r="O21">
-        <v>43800</v>
+        <v>2826</v>
       </c>
       <c r="P21">
-        <v>18587</v>
+        <v>1525</v>
       </c>
       <c r="Q21">
-        <v>440</v>
+        <v>-29</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>12430</v>
+        <v>6</v>
       </c>
       <c r="U21">
-        <v>10709</v>
+        <v>600</v>
       </c>
       <c r="V21">
-        <v>2610</v>
+        <v>153</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-730</v>
+        <v>30</v>
       </c>
       <c r="Y21">
-        <v>8458</v>
+        <v>0.7</v>
       </c>
       <c r="Z21">
-        <v>-77</v>
+        <v>-126</v>
       </c>
       <c r="AA21">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>482</v>
+        <v>199</v>
       </c>
       <c r="D22">
-        <v>35747</v>
+        <v>2977</v>
       </c>
       <c r="E22">
-        <v>5654</v>
+        <v>259</v>
       </c>
       <c r="F22">
-        <v>11406</v>
+        <v>667</v>
       </c>
       <c r="G22">
-        <v>35705</v>
+        <v>2929</v>
       </c>
       <c r="H22">
-        <v>64747</v>
+        <v>3696</v>
       </c>
       <c r="I22">
-        <v>20397</v>
+        <v>1366</v>
       </c>
       <c r="J22">
-        <v>8227</v>
+        <v>1480</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>33887</v>
+        <v>1899</v>
       </c>
       <c r="O22">
-        <v>51363</v>
+        <v>3450</v>
       </c>
       <c r="P22">
-        <v>17512</v>
+        <v>1485</v>
       </c>
       <c r="Q22">
-        <v>5181</v>
+        <v>413</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>230800</v>
+        <v>12000</v>
       </c>
       <c r="T22">
-        <v>13384</v>
+        <v>246</v>
       </c>
       <c r="U22">
-        <v>15890</v>
+        <v>1013</v>
       </c>
       <c r="V22">
-        <v>8812</v>
+        <v>630</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-1690</v>
+        <v>24</v>
       </c>
       <c r="Y22">
-        <v>5948</v>
+        <v>5</v>
       </c>
       <c r="Z22">
-        <v>-224</v>
+        <v>-176</v>
       </c>
       <c r="AA22">
-        <v>482</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>513</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>29128</v>
+        <v>2279</v>
       </c>
       <c r="E23">
-        <v>5072</v>
+        <v>214</v>
       </c>
       <c r="F23">
-        <v>10262</v>
+        <v>547</v>
       </c>
       <c r="G23">
-        <v>30513</v>
+        <v>2186</v>
       </c>
       <c r="H23">
-        <v>61128</v>
+        <v>2990</v>
       </c>
       <c r="I23">
-        <v>14990</v>
+        <v>920</v>
       </c>
       <c r="J23">
-        <v>8219</v>
+        <v>1245</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-1005</v>
+        <v>-313</v>
       </c>
       <c r="N23">
-        <v>28187</v>
+        <v>1407</v>
       </c>
       <c r="O23">
-        <v>46372</v>
+        <v>2666</v>
       </c>
       <c r="P23">
-        <v>17612</v>
+        <v>1257</v>
       </c>
       <c r="Q23">
-        <v>-3420</v>
+        <v>-506</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>14756</v>
+        <v>324</v>
       </c>
       <c r="U23">
-        <v>12470</v>
+        <v>507</v>
       </c>
       <c r="V23">
-        <v>-1953</v>
+        <v>-303</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-996</v>
+        <v>-296</v>
       </c>
       <c r="Y23">
-        <v>6000</v>
+        <v>10</v>
       </c>
       <c r="Z23">
-        <v>502</v>
+        <v>158</v>
       </c>
       <c r="AA23">
-        <v>513</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>857</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>30404</v>
+        <v>2139</v>
       </c>
       <c r="E24">
-        <v>6092</v>
+        <v>225</v>
       </c>
       <c r="F24">
-        <v>11224</v>
+        <v>509</v>
       </c>
       <c r="G24">
-        <v>32220</v>
+        <v>2231</v>
       </c>
       <c r="H24">
-        <v>65076</v>
+        <v>3165</v>
       </c>
       <c r="I24">
-        <v>16123</v>
+        <v>943</v>
       </c>
       <c r="J24">
-        <v>8212</v>
+        <v>1320</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2595,81 +2715,81 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-1218</v>
+        <v>-21</v>
       </c>
       <c r="N24">
-        <v>29587</v>
+        <v>1458</v>
       </c>
       <c r="O24">
-        <v>48538</v>
+        <v>2782</v>
       </c>
       <c r="P24">
-        <v>17860</v>
+        <v>1363</v>
       </c>
       <c r="Q24">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>16538</v>
+        <v>383</v>
       </c>
       <c r="U24">
-        <v>12521</v>
+        <v>683</v>
       </c>
       <c r="V24">
-        <v>3578</v>
+        <v>130</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-1152</v>
+        <v>73</v>
       </c>
       <c r="Y24">
-        <v>6100</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>-714</v>
+        <v>17</v>
       </c>
       <c r="AA24">
-        <v>857</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>32714</v>
+        <v>2307</v>
       </c>
       <c r="E25">
-        <v>6566</v>
+        <v>281</v>
       </c>
       <c r="F25">
-        <v>11454</v>
+        <v>549</v>
       </c>
       <c r="G25">
-        <v>35609</v>
+        <v>2315</v>
       </c>
       <c r="H25">
-        <v>70897</v>
+        <v>3268</v>
       </c>
       <c r="I25">
-        <v>18801</v>
+        <v>1196</v>
       </c>
       <c r="J25">
-        <v>8205</v>
+        <v>1300</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2678,81 +2798,81 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-1008</v>
+        <v>-42</v>
       </c>
       <c r="N25">
-        <v>33498</v>
+        <v>1768</v>
       </c>
       <c r="O25">
-        <v>53115</v>
+        <v>3072</v>
       </c>
       <c r="P25">
-        <v>18988</v>
+        <v>1370</v>
       </c>
       <c r="Q25">
-        <v>1135</v>
+        <v>10</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>17782</v>
+        <v>196</v>
       </c>
       <c r="U25">
-        <v>13656</v>
+        <v>693</v>
       </c>
       <c r="V25">
-        <v>4659</v>
+        <v>130</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-1000</v>
+        <v>-268</v>
       </c>
       <c r="Y25">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-645</v>
+        <v>211</v>
       </c>
       <c r="AA25">
-        <v>252</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>749</v>
+        <v>97</v>
       </c>
       <c r="D26">
-        <v>43741</v>
+        <v>3986</v>
       </c>
       <c r="E26">
-        <v>8339</v>
+        <v>382</v>
       </c>
       <c r="F26">
-        <v>14782</v>
+        <v>850</v>
       </c>
       <c r="G26">
-        <v>45781</v>
+        <v>3373</v>
       </c>
       <c r="H26">
-        <v>83402</v>
+        <v>4363</v>
       </c>
       <c r="I26">
-        <v>25309</v>
+        <v>1816</v>
       </c>
       <c r="J26">
-        <v>7694</v>
+        <v>1247</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>43816</v>
+        <v>2532</v>
       </c>
       <c r="O26">
-        <v>64117</v>
+        <v>3932</v>
       </c>
       <c r="P26">
-        <v>20413</v>
+        <v>1283</v>
       </c>
       <c r="Q26">
-        <v>5678</v>
+        <v>329</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>341400</v>
+        <v>13900</v>
       </c>
       <c r="T26">
-        <v>19285</v>
+        <v>431</v>
       </c>
       <c r="U26">
-        <v>19334</v>
+        <v>1022</v>
       </c>
       <c r="V26">
-        <v>10988</v>
+        <v>744</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-592</v>
+        <v>92</v>
       </c>
       <c r="Y26">
-        <v>7519</v>
+        <v>20</v>
       </c>
       <c r="Z26">
-        <v>-2165</v>
+        <v>-471</v>
       </c>
       <c r="AA26">
-        <v>749</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>724</v>
+        <v>111</v>
       </c>
       <c r="D27">
-        <v>35714</v>
+        <v>3015</v>
       </c>
       <c r="E27">
-        <v>7329</v>
+        <v>358</v>
       </c>
       <c r="F27">
-        <v>13274</v>
+        <v>719</v>
       </c>
       <c r="G27">
-        <v>39460</v>
+        <v>2600</v>
       </c>
       <c r="H27">
-        <v>80969</v>
+        <v>3661</v>
       </c>
       <c r="I27">
-        <v>18891</v>
+        <v>1211</v>
       </c>
       <c r="J27">
-        <v>7691</v>
+        <v>1251</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,81 +2964,81 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-909</v>
+        <v>-17</v>
       </c>
       <c r="N27">
-        <v>37399</v>
+        <v>1847</v>
       </c>
       <c r="O27">
-        <v>59295</v>
+        <v>3308</v>
       </c>
       <c r="P27">
-        <v>21599</v>
+        <v>1330</v>
       </c>
       <c r="Q27">
-        <v>-3633</v>
+        <v>-274</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>21674</v>
+        <v>353</v>
       </c>
       <c r="U27">
-        <v>15440</v>
+        <v>748</v>
       </c>
       <c r="V27">
-        <v>-1619</v>
+        <v>-279</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-888</v>
+        <v>-232</v>
       </c>
       <c r="Y27">
-        <v>8300</v>
+        <v>34</v>
       </c>
       <c r="Z27">
-        <v>556</v>
+        <v>270</v>
       </c>
       <c r="AA27">
-        <v>724</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="D28">
-        <v>37955</v>
+        <v>2886</v>
       </c>
       <c r="E28">
-        <v>8046</v>
+        <v>384</v>
       </c>
       <c r="F28">
-        <v>14504</v>
+        <v>701</v>
       </c>
       <c r="G28">
-        <v>41007</v>
+        <v>2859</v>
       </c>
       <c r="H28">
-        <v>87781</v>
+        <v>3984</v>
       </c>
       <c r="I28">
-        <v>21439</v>
+        <v>1295</v>
       </c>
       <c r="J28">
-        <v>7683</v>
+        <v>1256</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2927,81 +3047,81 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-1323</v>
+        <v>-29</v>
       </c>
       <c r="N28">
-        <v>40520</v>
+        <v>1936</v>
       </c>
       <c r="O28">
-        <v>64567</v>
+        <v>3434</v>
       </c>
       <c r="P28">
-        <v>23619</v>
+        <v>1336</v>
       </c>
       <c r="Q28">
-        <v>-2450</v>
+        <v>256</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>23214</v>
+        <v>550</v>
       </c>
       <c r="U28">
-        <v>13203</v>
+        <v>1004</v>
       </c>
       <c r="V28">
-        <v>3850</v>
+        <v>299</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-1274</v>
+        <v>41</v>
       </c>
       <c r="Y28">
-        <v>9800</v>
+        <v>44</v>
       </c>
       <c r="Z28">
-        <v>-2140</v>
+        <v>-19</v>
       </c>
       <c r="AA28">
-        <v>197</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="D29">
-        <v>43744</v>
+        <v>3262</v>
       </c>
       <c r="E29">
-        <v>10557</v>
+        <v>474</v>
       </c>
       <c r="F29">
-        <v>16195</v>
+        <v>762</v>
       </c>
       <c r="G29">
-        <v>48578</v>
+        <v>3424</v>
       </c>
       <c r="H29">
-        <v>115267</v>
+        <v>4618</v>
       </c>
       <c r="I29">
-        <v>26075</v>
+        <v>1674</v>
       </c>
       <c r="J29">
-        <v>24710</v>
+        <v>1273</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3010,81 +3130,81 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-1387</v>
+        <v>-29</v>
       </c>
       <c r="N29">
-        <v>47072</v>
+        <v>2319</v>
       </c>
       <c r="O29">
-        <v>90609</v>
+        <v>3857</v>
       </c>
       <c r="P29">
-        <v>43186</v>
+        <v>1351</v>
       </c>
       <c r="Q29">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>24658</v>
+        <v>761</v>
       </c>
       <c r="U29">
-        <v>12767</v>
+        <v>1366</v>
       </c>
       <c r="V29">
-        <v>3777</v>
+        <v>237</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>14662</v>
+        <v>73</v>
       </c>
       <c r="Y29">
-        <v>11900</v>
+        <v>69</v>
       </c>
       <c r="Z29">
-        <v>-2606</v>
+        <v>127</v>
       </c>
       <c r="AA29">
-        <v>256</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1857</v>
+        <v>207</v>
       </c>
       <c r="D30">
-        <v>60453</v>
+        <v>5672</v>
       </c>
       <c r="E30">
-        <v>9000</v>
+        <v>705</v>
       </c>
       <c r="F30">
-        <v>21958</v>
+        <v>1170</v>
       </c>
       <c r="G30">
-        <v>60197</v>
+        <v>5164</v>
       </c>
       <c r="H30">
-        <v>131310</v>
+        <v>6485</v>
       </c>
       <c r="I30">
-        <v>34616</v>
+        <v>2795</v>
       </c>
       <c r="J30">
-        <v>24743</v>
+        <v>1282</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>57883</v>
+        <v>3714</v>
       </c>
       <c r="O30">
-        <v>103601</v>
+        <v>5288</v>
       </c>
       <c r="P30">
-        <v>44108</v>
+        <v>1361</v>
       </c>
       <c r="Q30">
-        <v>7896</v>
+        <v>1173</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>566000</v>
+        <v>17000</v>
       </c>
       <c r="T30">
-        <v>27709</v>
+        <v>1197</v>
       </c>
       <c r="U30">
-        <v>20522</v>
+        <v>2539</v>
       </c>
       <c r="V30">
-        <v>12358</v>
+        <v>1148</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-2571</v>
+        <v>168</v>
       </c>
       <c r="Y30">
-        <v>13183</v>
+        <v>62</v>
       </c>
       <c r="Z30">
-        <v>1136</v>
+        <v>-38</v>
       </c>
       <c r="AA30">
-        <v>1857</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1629</v>
+        <v>143</v>
       </c>
       <c r="D31">
-        <v>51042</v>
+        <v>4135</v>
       </c>
       <c r="E31">
-        <v>6300</v>
+        <v>581</v>
       </c>
       <c r="F31">
-        <v>20307</v>
+        <v>956</v>
       </c>
       <c r="G31">
-        <v>50829</v>
+        <v>3965</v>
       </c>
       <c r="H31">
-        <v>126362</v>
+        <v>5883</v>
       </c>
       <c r="I31">
-        <v>25172</v>
+        <v>1864</v>
       </c>
       <c r="J31">
-        <v>24640</v>
+        <v>467</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-2289</v>
+        <v>-26</v>
       </c>
       <c r="N31">
-        <v>48045</v>
+        <v>3551</v>
       </c>
       <c r="O31">
-        <v>94899</v>
+        <v>4413</v>
       </c>
       <c r="P31">
-        <v>44487</v>
+        <v>1485</v>
       </c>
       <c r="Q31">
-        <v>-4240</v>
+        <v>-1043</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>31463</v>
+        <v>1470</v>
       </c>
       <c r="U31">
-        <v>16676</v>
+        <v>1496</v>
       </c>
       <c r="V31">
-        <v>-1791</v>
+        <v>-645</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-2164</v>
+        <v>92</v>
       </c>
       <c r="Y31">
-        <v>13300</v>
+        <v>84</v>
       </c>
       <c r="Z31">
-        <v>2207</v>
+        <v>-111</v>
       </c>
       <c r="AA31">
-        <v>1629</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>2534</v>
+        <v>158</v>
       </c>
       <c r="D32">
-        <v>52886</v>
+        <v>4063</v>
       </c>
       <c r="E32">
-        <v>6900</v>
+        <v>586</v>
       </c>
       <c r="F32">
-        <v>22254</v>
+        <v>967</v>
       </c>
       <c r="G32">
-        <v>54481</v>
+        <v>4236</v>
       </c>
       <c r="H32">
-        <v>134100</v>
+        <v>6322</v>
       </c>
       <c r="I32">
-        <v>27657</v>
+        <v>1963</v>
       </c>
       <c r="J32">
-        <v>24638</v>
+        <v>433</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3259,81 +3379,81 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-1490</v>
+        <v>-36</v>
       </c>
       <c r="N32">
-        <v>50801</v>
+        <v>3216</v>
       </c>
       <c r="O32">
-        <v>99105</v>
+        <v>4092</v>
       </c>
       <c r="P32">
-        <v>45789</v>
+        <v>1031</v>
       </c>
       <c r="Q32">
-        <v>2920</v>
+        <v>52</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>34995</v>
+        <v>2230</v>
       </c>
       <c r="U32">
-        <v>19823</v>
+        <v>1548</v>
       </c>
       <c r="V32">
-        <v>7449</v>
+        <v>347</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-1394</v>
+        <v>14</v>
       </c>
       <c r="Y32">
-        <v>14200</v>
+        <v>127</v>
       </c>
       <c r="Z32">
-        <v>1123</v>
+        <v>-188</v>
       </c>
       <c r="AA32">
-        <v>2534</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>2883</v>
+        <v>118</v>
       </c>
       <c r="D33">
-        <v>56576</v>
+        <v>4264</v>
       </c>
       <c r="E33">
-        <v>10500</v>
+        <v>597</v>
       </c>
       <c r="F33">
-        <v>23573</v>
+        <v>999</v>
       </c>
       <c r="G33">
-        <v>59885</v>
+        <v>4430</v>
       </c>
       <c r="H33">
-        <v>143695</v>
+        <v>6566</v>
       </c>
       <c r="I33">
-        <v>30904</v>
+        <v>2242</v>
       </c>
       <c r="J33">
-        <v>24684</v>
+        <v>393</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3342,81 +3462,81 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>-2512</v>
+        <v>-295</v>
       </c>
       <c r="N33">
-        <v>55324</v>
+        <v>3144</v>
       </c>
       <c r="O33">
-        <v>104570</v>
+        <v>4039</v>
       </c>
       <c r="P33">
-        <v>47219</v>
+        <v>618</v>
       </c>
       <c r="Q33">
-        <v>496</v>
+        <v>102</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>39125</v>
+        <v>2527</v>
       </c>
       <c r="U33">
-        <v>20425</v>
+        <v>1650</v>
       </c>
       <c r="V33">
-        <v>8588</v>
+        <v>424</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-2369</v>
+        <v>-240</v>
       </c>
       <c r="Y33">
-        <v>15200</v>
+        <v>164</v>
       </c>
       <c r="Z33">
-        <v>-2069</v>
+        <v>104</v>
       </c>
       <c r="AA33">
-        <v>2883</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>3027</v>
+        <v>225</v>
       </c>
       <c r="D34">
-        <v>72383</v>
+        <v>6703</v>
       </c>
       <c r="E34">
-        <v>12600</v>
+        <v>827</v>
       </c>
       <c r="F34">
-        <v>27597</v>
+        <v>1348</v>
       </c>
       <c r="G34">
-        <v>75101</v>
+        <v>6157</v>
       </c>
       <c r="H34">
-        <v>162648</v>
+        <v>8314</v>
       </c>
       <c r="I34">
-        <v>38192</v>
+        <v>3594</v>
       </c>
       <c r="J34">
-        <v>23495</v>
+        <v>409</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>68391</v>
+        <v>4746</v>
       </c>
       <c r="O34">
-        <v>119099</v>
+        <v>5642</v>
       </c>
       <c r="P34">
-        <v>34516</v>
+        <v>592</v>
       </c>
       <c r="Q34">
-        <v>11141</v>
+        <v>1119</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>647500</v>
+        <v>20700</v>
       </c>
       <c r="T34">
-        <v>43549</v>
+        <v>2672</v>
       </c>
       <c r="U34">
-        <v>31750</v>
+        <v>2769</v>
       </c>
       <c r="V34">
-        <v>16477</v>
+        <v>1571</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-1761</v>
+        <v>-65</v>
       </c>
       <c r="Y34">
-        <v>9650</v>
+        <v>124</v>
       </c>
       <c r="Z34">
-        <v>-121</v>
+        <v>-176</v>
       </c>
       <c r="AA34">
-        <v>3027</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>3561</v>
+        <v>177</v>
       </c>
       <c r="D35">
-        <v>59700</v>
+        <v>4889</v>
       </c>
       <c r="E35">
-        <v>12300</v>
+        <v>587</v>
       </c>
       <c r="F35">
-        <v>25780</v>
+        <v>1148</v>
       </c>
       <c r="G35">
-        <v>69431</v>
+        <v>4775</v>
       </c>
       <c r="H35">
-        <v>178102</v>
+        <v>6980</v>
       </c>
       <c r="I35">
-        <v>31809</v>
+        <v>2380</v>
       </c>
       <c r="J35">
-        <v>23322</v>
+        <v>74</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,247 +3628,247 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-2567</v>
+        <v>-343</v>
       </c>
       <c r="N35">
-        <v>63695</v>
+        <v>3410</v>
       </c>
       <c r="O35">
-        <v>129692</v>
+        <v>4062</v>
       </c>
       <c r="P35">
-        <v>69005</v>
+        <v>345</v>
       </c>
       <c r="Q35">
-        <v>-8666</v>
+        <v>-1068</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>48410</v>
+        <v>2918</v>
       </c>
       <c r="U35">
-        <v>23115</v>
+        <v>1701</v>
       </c>
       <c r="V35">
-        <v>1846</v>
+        <v>-585</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-2377</v>
+        <v>-291</v>
       </c>
       <c r="Y35">
-        <v>33275</v>
+        <v>144</v>
       </c>
       <c r="Z35">
-        <v>-4233</v>
+        <v>-77</v>
       </c>
       <c r="AA35">
-        <v>3561</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>2625</v>
+        <v>142</v>
       </c>
       <c r="D36">
-        <v>63404</v>
+        <v>4651</v>
       </c>
       <c r="E36">
-        <v>13200</v>
+        <v>584</v>
       </c>
       <c r="F36">
-        <v>27067</v>
+        <v>1133</v>
       </c>
       <c r="G36">
-        <v>76790</v>
+        <v>5304</v>
       </c>
       <c r="H36">
-        <v>191351</v>
+        <v>7675</v>
       </c>
       <c r="I36">
-        <v>36063</v>
+        <v>2508</v>
       </c>
       <c r="J36">
-        <v>23329</v>
+        <v>109</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>-2368</v>
+        <v>-25</v>
       </c>
       <c r="N36">
-        <v>69678</v>
+        <v>3636</v>
       </c>
       <c r="O36">
-        <v>138290</v>
+        <v>4419</v>
       </c>
       <c r="P36">
-        <v>71614</v>
+        <v>343</v>
       </c>
       <c r="Q36">
-        <v>-542</v>
+        <v>235</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>53061</v>
+        <v>3256</v>
       </c>
       <c r="U36">
-        <v>22616</v>
+        <v>1936</v>
       </c>
       <c r="V36">
-        <v>9118</v>
+        <v>468</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-2158</v>
+        <v>-3</v>
       </c>
       <c r="Y36">
-        <v>35134</v>
+        <v>163</v>
       </c>
       <c r="Z36">
-        <v>-4789</v>
+        <v>-182</v>
       </c>
       <c r="AA36">
-        <v>2625</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>2134</v>
+        <v>199</v>
       </c>
       <c r="D37">
-        <v>69981</v>
+        <v>5449</v>
       </c>
       <c r="E37">
-        <v>13100</v>
+        <v>671</v>
       </c>
       <c r="F37">
-        <v>28679</v>
+        <v>1273</v>
       </c>
       <c r="G37">
-        <v>79054</v>
+        <v>6369</v>
       </c>
       <c r="H37">
-        <v>199099</v>
+        <v>8972</v>
       </c>
       <c r="I37">
-        <v>35794</v>
+        <v>3354</v>
       </c>
       <c r="J37">
-        <v>22472</v>
+        <v>116</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>-341</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>-2321</v>
+        <v>-20</v>
       </c>
       <c r="N37">
-        <v>72136</v>
+        <v>4537</v>
       </c>
       <c r="O37">
-        <v>142591</v>
+        <v>5387</v>
       </c>
       <c r="P37">
-        <v>74591</v>
+        <v>387</v>
       </c>
       <c r="Q37">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>56508</v>
+        <v>3585</v>
       </c>
       <c r="U37">
-        <v>23255</v>
+        <v>2514</v>
       </c>
       <c r="V37">
-        <v>7892</v>
+        <v>799</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-1960</v>
+        <v>64</v>
       </c>
       <c r="Y37">
-        <v>37058</v>
+        <v>224</v>
       </c>
       <c r="Z37">
-        <v>-1291</v>
+        <v>-194</v>
       </c>
       <c r="AA37">
-        <v>2134</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>3268</v>
+        <v>384</v>
       </c>
       <c r="D38">
-        <v>87436</v>
+        <v>9520</v>
       </c>
       <c r="E38">
-        <v>16800</v>
+        <v>988</v>
       </c>
       <c r="F38">
-        <v>33459</v>
+        <v>1977</v>
       </c>
       <c r="G38">
-        <v>96334</v>
+        <v>9797</v>
       </c>
       <c r="H38">
-        <v>225248</v>
+        <v>13813</v>
       </c>
       <c r="I38">
-        <v>47183</v>
+        <v>5605</v>
       </c>
       <c r="J38">
-        <v>23414</v>
+        <v>109</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>87812</v>
+        <v>7364</v>
       </c>
       <c r="O38">
-        <v>163188</v>
+        <v>8556</v>
       </c>
       <c r="P38">
-        <v>77533</v>
+        <v>252</v>
       </c>
       <c r="Q38">
-        <v>12856</v>
+        <v>930</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>798000</v>
+        <v>24300</v>
       </c>
       <c r="T38">
-        <v>62060</v>
+        <v>5257</v>
       </c>
       <c r="U38">
-        <v>36092</v>
+        <v>3444</v>
       </c>
       <c r="V38">
-        <v>19659</v>
+        <v>2611</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-3571</v>
+        <v>-51</v>
       </c>
       <c r="Y38">
-        <v>39791</v>
+        <v>143</v>
       </c>
       <c r="Z38">
-        <v>1181</v>
+        <v>-1471</v>
       </c>
       <c r="AA38">
-        <v>3268</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>2535</v>
+        <v>299</v>
       </c>
       <c r="D39">
-        <v>75452</v>
+        <v>7131</v>
       </c>
       <c r="E39">
-        <v>14000</v>
+        <v>815</v>
       </c>
       <c r="F39">
-        <v>31195</v>
+        <v>1630</v>
       </c>
       <c r="G39">
-        <v>85985</v>
+        <v>7964</v>
       </c>
       <c r="H39">
-        <v>221238</v>
+        <v>12042</v>
       </c>
       <c r="I39">
-        <v>40056</v>
+        <v>3619</v>
       </c>
       <c r="J39">
-        <v>23437</v>
+        <v>131</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,297 +3960,3617 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-3284</v>
+        <v>-61</v>
       </c>
       <c r="N39">
-        <v>79711</v>
+        <v>5193</v>
       </c>
       <c r="O39">
-        <v>155966</v>
+        <v>6424</v>
       </c>
       <c r="P39">
-        <v>78151</v>
+        <v>516</v>
       </c>
       <c r="Q39">
-        <v>-8905</v>
+        <v>-1600</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>65272</v>
+        <v>5618</v>
       </c>
       <c r="U39">
-        <v>27201</v>
+        <v>1844</v>
       </c>
       <c r="V39">
-        <v>3064</v>
+        <v>-1098</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-2591</v>
+        <v>87</v>
       </c>
       <c r="Y39">
-        <v>40300</v>
+        <v>195</v>
       </c>
       <c r="Z39">
-        <v>-3375</v>
+        <v>-383</v>
       </c>
       <c r="AA39">
-        <v>2535</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>5243</v>
+        <v>207</v>
       </c>
       <c r="D40">
-        <v>88912</v>
+        <v>6566</v>
       </c>
       <c r="E40">
-        <v>15300</v>
+        <v>805</v>
       </c>
       <c r="F40">
-        <v>36252</v>
+        <v>1609</v>
       </c>
       <c r="G40">
-        <v>110908</v>
+        <v>8118</v>
       </c>
       <c r="H40">
-        <v>258314</v>
+        <v>12397</v>
       </c>
       <c r="I40">
-        <v>51036</v>
+        <v>3545</v>
       </c>
       <c r="J40">
-        <v>33128</v>
+        <v>132</v>
       </c>
       <c r="K40">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>-1906</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>-3037</v>
+        <v>-37</v>
       </c>
       <c r="N40">
-        <v>93896</v>
+        <v>5250</v>
       </c>
       <c r="O40">
-        <v>184586</v>
+        <v>6540</v>
       </c>
       <c r="P40">
-        <v>91401</v>
+        <v>786</v>
       </c>
       <c r="Q40">
-        <v>10337</v>
+        <v>-215</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>73728</v>
+        <v>5857</v>
       </c>
       <c r="U40">
-        <v>37466</v>
+        <v>1629</v>
       </c>
       <c r="V40">
-        <v>20606</v>
+        <v>250</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>7408</v>
+        <v>43</v>
       </c>
       <c r="Y40">
-        <v>42798</v>
+        <v>481</v>
       </c>
       <c r="Z40">
-        <v>-11071</v>
+        <v>-258</v>
       </c>
       <c r="AA40">
-        <v>5243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>6331</v>
+        <v>231</v>
       </c>
       <c r="D41">
-        <v>96145</v>
+        <v>7560</v>
       </c>
       <c r="E41">
-        <v>16400</v>
+        <v>959</v>
       </c>
       <c r="F41">
-        <v>39039</v>
+        <v>1774</v>
       </c>
       <c r="G41">
-        <v>112969</v>
+        <v>9559</v>
       </c>
       <c r="H41">
-        <v>282179</v>
+        <v>14162</v>
       </c>
       <c r="I41">
-        <v>58334</v>
+        <v>4614</v>
       </c>
       <c r="J41">
-        <v>32929</v>
+        <v>164</v>
       </c>
       <c r="K41">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>-1349</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>-4067</v>
+        <v>-49</v>
       </c>
       <c r="N41">
-        <v>101912</v>
+        <v>6375</v>
       </c>
       <c r="O41">
-        <v>199404</v>
+        <v>7765</v>
       </c>
       <c r="P41">
-        <v>96814</v>
+        <v>957</v>
       </c>
       <c r="Q41">
-        <v>-7640</v>
+        <v>-90</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>82775</v>
+        <v>6397</v>
       </c>
       <c r="U41">
-        <v>29930</v>
+        <v>1539</v>
       </c>
       <c r="V41">
-        <v>11964</v>
+        <v>855</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-4105</v>
+        <v>93</v>
       </c>
       <c r="Y41">
-        <v>48589</v>
+        <v>656</v>
       </c>
       <c r="Z41">
-        <v>-4333</v>
+        <v>-771</v>
       </c>
       <c r="AA41">
-        <v>6331</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>416</v>
+      </c>
+      <c r="D42">
+        <v>12947</v>
+      </c>
+      <c r="E42">
+        <v>1587</v>
+      </c>
+      <c r="F42">
+        <v>2630</v>
+      </c>
+      <c r="G42">
+        <v>13747</v>
+      </c>
+      <c r="H42">
+        <v>18797</v>
+      </c>
+      <c r="I42">
+        <v>8051</v>
+      </c>
+      <c r="J42">
+        <v>184</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>10372</v>
+      </c>
+      <c r="O42">
+        <v>11933</v>
+      </c>
+      <c r="P42">
+        <v>641</v>
+      </c>
+      <c r="Q42">
+        <v>2238</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>33700</v>
+      </c>
+      <c r="T42">
+        <v>6864</v>
+      </c>
+      <c r="U42">
+        <v>3777</v>
+      </c>
+      <c r="V42">
+        <v>3488</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-43</v>
+      </c>
+      <c r="Y42">
+        <v>457</v>
+      </c>
+      <c r="Z42">
+        <v>-617</v>
+      </c>
+      <c r="AA42">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>201</v>
+      </c>
+      <c r="D43">
+        <v>9857</v>
+      </c>
+      <c r="E43">
+        <v>1304</v>
+      </c>
+      <c r="F43">
+        <v>2249</v>
+      </c>
+      <c r="G43">
+        <v>11288</v>
+      </c>
+      <c r="H43">
+        <v>16882</v>
+      </c>
+      <c r="I43">
+        <v>5540</v>
+      </c>
+      <c r="J43">
+        <v>291</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-111</v>
+      </c>
+      <c r="N43">
+        <v>7730</v>
+      </c>
+      <c r="O43">
+        <v>9535</v>
+      </c>
+      <c r="P43">
+        <v>1333</v>
+      </c>
+      <c r="Q43">
+        <v>-1136</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>7347</v>
+      </c>
+      <c r="U43">
+        <v>2641</v>
+      </c>
+      <c r="V43">
+        <v>-1586</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>24</v>
+      </c>
+      <c r="Y43">
+        <v>785</v>
+      </c>
+      <c r="Z43">
+        <v>827</v>
+      </c>
+      <c r="AA43">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>191</v>
+      </c>
+      <c r="D44">
+        <v>9913</v>
+      </c>
+      <c r="E44">
+        <v>1438</v>
+      </c>
+      <c r="F44">
+        <v>2388</v>
+      </c>
+      <c r="G44">
+        <v>11279</v>
+      </c>
+      <c r="H44">
+        <v>17941</v>
+      </c>
+      <c r="I44">
+        <v>5721</v>
+      </c>
+      <c r="J44">
+        <v>329</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-140</v>
+      </c>
+      <c r="N44">
+        <v>8045</v>
+      </c>
+      <c r="O44">
+        <v>10176</v>
+      </c>
+      <c r="P44">
+        <v>1808</v>
+      </c>
+      <c r="Q44">
+        <v>-594</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>7765</v>
+      </c>
+      <c r="U44">
+        <v>2047</v>
+      </c>
+      <c r="V44">
+        <v>423</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-91</v>
+      </c>
+      <c r="Y44">
+        <v>1266</v>
+      </c>
+      <c r="Z44">
+        <v>-49</v>
+      </c>
+      <c r="AA44">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>63</v>
+      </c>
+      <c r="D45">
+        <v>10876</v>
+      </c>
+      <c r="E45">
+        <v>1496</v>
+      </c>
+      <c r="F45">
+        <v>2551</v>
+      </c>
+      <c r="G45">
+        <v>11904</v>
+      </c>
+      <c r="H45">
+        <v>19054</v>
+      </c>
+      <c r="I45">
+        <v>6552</v>
+      </c>
+      <c r="J45">
+        <v>341</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-91</v>
+      </c>
+      <c r="N45">
+        <v>8978</v>
+      </c>
+      <c r="O45">
+        <v>11288</v>
+      </c>
+      <c r="P45">
+        <v>1897</v>
+      </c>
+      <c r="Q45">
+        <v>776</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>7766</v>
+      </c>
+      <c r="U45">
+        <v>2823</v>
+      </c>
+      <c r="V45">
+        <v>797</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-82</v>
+      </c>
+      <c r="Y45">
+        <v>1429</v>
+      </c>
+      <c r="Z45">
+        <v>677</v>
+      </c>
+      <c r="AA45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>177</v>
+      </c>
+      <c r="D46">
+        <v>17431</v>
+      </c>
+      <c r="E46">
+        <v>2571</v>
+      </c>
+      <c r="F46">
+        <v>3600</v>
+      </c>
+      <c r="G46">
+        <v>17490</v>
+      </c>
+      <c r="H46">
+        <v>25278</v>
+      </c>
+      <c r="I46">
+        <v>11145</v>
+      </c>
+      <c r="J46">
+        <v>255</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>14896</v>
+      </c>
+      <c r="O46">
+        <v>17521</v>
+      </c>
+      <c r="P46">
+        <v>1544</v>
+      </c>
+      <c r="Q46">
+        <v>2446</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>56200</v>
+      </c>
+      <c r="T46">
+        <v>7757</v>
+      </c>
+      <c r="U46">
+        <v>5269</v>
+      </c>
+      <c r="V46">
+        <v>4269</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-333</v>
+      </c>
+      <c r="Y46">
+        <v>1160</v>
+      </c>
+      <c r="Z46">
+        <v>-870</v>
+      </c>
+      <c r="AA46">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>130</v>
+      </c>
+      <c r="D47">
+        <v>13185</v>
+      </c>
+      <c r="E47">
+        <v>1813</v>
+      </c>
+      <c r="F47">
+        <v>3158</v>
+      </c>
+      <c r="G47">
+        <v>12154</v>
+      </c>
+      <c r="H47">
+        <v>20339</v>
+      </c>
+      <c r="I47">
+        <v>6886</v>
+      </c>
+      <c r="J47">
+        <v>323</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-153</v>
+      </c>
+      <c r="N47">
+        <v>10488</v>
+      </c>
+      <c r="O47">
+        <v>13068</v>
+      </c>
+      <c r="P47">
+        <v>2363</v>
+      </c>
+      <c r="Q47">
+        <v>-2981</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>7271</v>
+      </c>
+      <c r="U47">
+        <v>2288</v>
+      </c>
+      <c r="V47">
+        <v>-2438</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-1005</v>
+      </c>
+      <c r="Y47">
+        <v>1557</v>
+      </c>
+      <c r="Z47">
+        <v>886</v>
+      </c>
+      <c r="AA47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>12834</v>
+      </c>
+      <c r="E48">
+        <v>2035</v>
+      </c>
+      <c r="F48">
+        <v>3346</v>
+      </c>
+      <c r="G48">
+        <v>11793</v>
+      </c>
+      <c r="H48">
+        <v>21022</v>
+      </c>
+      <c r="I48">
+        <v>7072</v>
+      </c>
+      <c r="J48">
+        <v>489</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-141</v>
+      </c>
+      <c r="N48">
+        <v>10964</v>
+      </c>
+      <c r="O48">
+        <v>13517</v>
+      </c>
+      <c r="P48">
+        <v>2385</v>
+      </c>
+      <c r="Q48">
+        <v>47</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>7505</v>
+      </c>
+      <c r="U48">
+        <v>2335</v>
+      </c>
+      <c r="V48">
+        <v>594</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>67</v>
+      </c>
+      <c r="Y48">
+        <v>1569</v>
+      </c>
+      <c r="Z48">
+        <v>686</v>
+      </c>
+      <c r="AA48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-274</v>
+      </c>
+      <c r="D49">
+        <v>13806</v>
+      </c>
+      <c r="E49">
+        <v>2392</v>
+      </c>
+      <c r="F49">
+        <v>3487</v>
+      </c>
+      <c r="G49">
+        <v>13118</v>
+      </c>
+      <c r="H49">
+        <v>22834</v>
+      </c>
+      <c r="I49">
+        <v>8369</v>
+      </c>
+      <c r="J49">
+        <v>606</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-144</v>
+      </c>
+      <c r="N49">
+        <v>12605</v>
+      </c>
+      <c r="O49">
+        <v>15281</v>
+      </c>
+      <c r="P49">
+        <v>2549</v>
+      </c>
+      <c r="Q49">
+        <v>645</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>7553</v>
+      </c>
+      <c r="U49">
+        <v>2980</v>
+      </c>
+      <c r="V49">
+        <v>943</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>31</v>
+      </c>
+      <c r="Y49">
+        <v>1754</v>
+      </c>
+      <c r="Z49">
+        <v>384</v>
+      </c>
+      <c r="AA49">
+        <v>-274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>98</v>
+      </c>
+      <c r="D50">
+        <v>21268</v>
+      </c>
+      <c r="E50">
+        <v>3817</v>
+      </c>
+      <c r="F50">
+        <v>5131</v>
+      </c>
+      <c r="G50">
+        <v>21296</v>
+      </c>
+      <c r="H50">
+        <v>32555</v>
+      </c>
+      <c r="I50">
+        <v>13318</v>
+      </c>
+      <c r="J50">
+        <v>3084</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>19002</v>
+      </c>
+      <c r="O50">
+        <v>24363</v>
+      </c>
+      <c r="P50">
+        <v>4409</v>
+      </c>
+      <c r="Q50">
+        <v>5104</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>88400</v>
+      </c>
+      <c r="T50">
+        <v>8192</v>
+      </c>
+      <c r="U50">
+        <v>8084</v>
+      </c>
+      <c r="V50">
+        <v>5081</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>3166</v>
+      </c>
+      <c r="Y50">
+        <v>746</v>
+      </c>
+      <c r="Z50">
+        <v>-1022</v>
+      </c>
+      <c r="AA50">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>82</v>
+      </c>
+      <c r="D51">
+        <v>16070</v>
+      </c>
+      <c r="E51">
+        <v>2516</v>
+      </c>
+      <c r="F51">
+        <v>4269</v>
+      </c>
+      <c r="G51">
+        <v>16313</v>
+      </c>
+      <c r="H51">
+        <v>28377</v>
+      </c>
+      <c r="I51">
+        <v>8916</v>
+      </c>
+      <c r="J51">
+        <v>3040</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-182</v>
+      </c>
+      <c r="N51">
+        <v>14332</v>
+      </c>
+      <c r="O51">
+        <v>19945</v>
+      </c>
+      <c r="P51">
+        <v>5230</v>
+      </c>
+      <c r="Q51">
+        <v>-3603</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>8432</v>
+      </c>
+      <c r="U51">
+        <v>4481</v>
+      </c>
+      <c r="V51">
+        <v>-2372</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-157</v>
+      </c>
+      <c r="Y51">
+        <v>1054</v>
+      </c>
+      <c r="Z51">
+        <v>-177</v>
+      </c>
+      <c r="AA51">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-7</v>
+      </c>
+      <c r="D52">
+        <v>15704</v>
+      </c>
+      <c r="E52">
+        <v>2861</v>
+      </c>
+      <c r="F52">
+        <v>4495</v>
+      </c>
+      <c r="G52">
+        <v>16285</v>
+      </c>
+      <c r="H52">
+        <v>29623</v>
+      </c>
+      <c r="I52">
+        <v>8990</v>
+      </c>
+      <c r="J52">
+        <v>3042</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>-290</v>
+      </c>
+      <c r="N52">
+        <v>14735</v>
+      </c>
+      <c r="O52">
+        <v>20890</v>
+      </c>
+      <c r="P52">
+        <v>5536</v>
+      </c>
+      <c r="Q52">
+        <v>-777</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>8733</v>
+      </c>
+      <c r="U52">
+        <v>3704</v>
+      </c>
+      <c r="V52">
+        <v>880</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-209</v>
+      </c>
+      <c r="Y52">
+        <v>1423</v>
+      </c>
+      <c r="Z52">
+        <v>-417</v>
+      </c>
+      <c r="AA52">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-41</v>
+      </c>
+      <c r="D53">
+        <v>17092</v>
+      </c>
+      <c r="E53">
+        <v>3057</v>
+      </c>
+      <c r="F53">
+        <v>4726</v>
+      </c>
+      <c r="G53">
+        <v>17334</v>
+      </c>
+      <c r="H53">
+        <v>31861</v>
+      </c>
+      <c r="I53">
+        <v>10037</v>
+      </c>
+      <c r="J53">
+        <v>3043</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>-255</v>
+      </c>
+      <c r="N53">
+        <v>16135</v>
+      </c>
+      <c r="O53">
+        <v>22774</v>
+      </c>
+      <c r="P53">
+        <v>6466</v>
+      </c>
+      <c r="Q53">
+        <v>168</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>9087</v>
+      </c>
+      <c r="U53">
+        <v>3872</v>
+      </c>
+      <c r="V53">
+        <v>1388</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-230</v>
+      </c>
+      <c r="Y53">
+        <v>2521</v>
+      </c>
+      <c r="Z53">
+        <v>-24</v>
+      </c>
+      <c r="AA53">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>240</v>
+      </c>
+      <c r="D54">
+        <v>25587</v>
+      </c>
+      <c r="E54">
+        <v>4767</v>
+      </c>
+      <c r="F54">
+        <v>6781</v>
+      </c>
+      <c r="G54">
+        <v>24625</v>
+      </c>
+      <c r="H54">
+        <v>40159</v>
+      </c>
+      <c r="I54">
+        <v>15133</v>
+      </c>
+      <c r="J54">
+        <v>3191</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>22980</v>
+      </c>
+      <c r="O54">
+        <v>30413</v>
+      </c>
+      <c r="P54">
+        <v>5934</v>
+      </c>
+      <c r="Q54">
+        <v>4786</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>117300</v>
+      </c>
+      <c r="T54">
+        <v>9746</v>
+      </c>
+      <c r="U54">
+        <v>8658</v>
+      </c>
+      <c r="V54">
+        <v>5578</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>57</v>
+      </c>
+      <c r="Y54">
+        <v>1990</v>
+      </c>
+      <c r="Z54">
+        <v>95</v>
+      </c>
+      <c r="AA54">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>108</v>
+      </c>
+      <c r="D55">
+        <v>19741</v>
+      </c>
+      <c r="E55">
+        <v>3945</v>
+      </c>
+      <c r="F55">
+        <v>5686</v>
+      </c>
+      <c r="G55">
+        <v>19327</v>
+      </c>
+      <c r="H55">
+        <v>36364</v>
+      </c>
+      <c r="I55">
+        <v>10590</v>
+      </c>
+      <c r="J55">
+        <v>3147</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-361</v>
+      </c>
+      <c r="N55">
+        <v>18357</v>
+      </c>
+      <c r="O55">
+        <v>26036</v>
+      </c>
+      <c r="P55">
+        <v>7595</v>
+      </c>
+      <c r="Q55">
+        <v>-3584</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>10328</v>
+      </c>
+      <c r="U55">
+        <v>5074</v>
+      </c>
+      <c r="V55">
+        <v>-2502</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-175</v>
+      </c>
+      <c r="Y55">
+        <v>2770</v>
+      </c>
+      <c r="Z55">
+        <v>156</v>
+      </c>
+      <c r="AA55">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>-126</v>
+      </c>
+      <c r="D56">
+        <v>19340</v>
+      </c>
+      <c r="E56">
+        <v>4125</v>
+      </c>
+      <c r="F56">
+        <v>5941</v>
+      </c>
+      <c r="G56">
+        <v>18755</v>
+      </c>
+      <c r="H56">
+        <v>37898</v>
+      </c>
+      <c r="I56">
+        <v>10457</v>
+      </c>
+      <c r="J56">
+        <v>3119</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-475</v>
+      </c>
+      <c r="N56">
+        <v>18751</v>
+      </c>
+      <c r="O56">
+        <v>27296</v>
+      </c>
+      <c r="P56">
+        <v>8550</v>
+      </c>
+      <c r="Q56">
+        <v>-17</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>10602</v>
+      </c>
+      <c r="U56">
+        <v>5057</v>
+      </c>
+      <c r="V56">
+        <v>862</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-189</v>
+      </c>
+      <c r="Y56">
+        <v>3525</v>
+      </c>
+      <c r="Z56">
+        <v>626</v>
+      </c>
+      <c r="AA56">
+        <v>-126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>-437</v>
+      </c>
+      <c r="D57">
+        <v>20579</v>
+      </c>
+      <c r="E57">
+        <v>4373</v>
+      </c>
+      <c r="F57">
+        <v>5952</v>
+      </c>
+      <c r="G57">
+        <v>18572</v>
+      </c>
+      <c r="H57">
+        <v>40419</v>
+      </c>
+      <c r="I57">
+        <v>11811</v>
+      </c>
+      <c r="J57">
+        <v>3099</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-440</v>
+      </c>
+      <c r="N57">
+        <v>20842</v>
+      </c>
+      <c r="O57">
+        <v>30083</v>
+      </c>
+      <c r="P57">
+        <v>9708</v>
+      </c>
+      <c r="Q57">
+        <v>201</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>10336</v>
+      </c>
+      <c r="U57">
+        <v>5258</v>
+      </c>
+      <c r="V57">
+        <v>1766</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-412</v>
+      </c>
+      <c r="Y57">
+        <v>4898</v>
+      </c>
+      <c r="Z57">
+        <v>1292</v>
+      </c>
+      <c r="AA57">
+        <v>-437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>214</v>
+      </c>
+      <c r="D58">
+        <v>29329</v>
+      </c>
+      <c r="E58">
+        <v>5612</v>
+      </c>
+      <c r="F58">
+        <v>8657</v>
+      </c>
+      <c r="G58">
+        <v>31327</v>
+      </c>
+      <c r="H58">
+        <v>54505</v>
+      </c>
+      <c r="I58">
+        <v>16459</v>
+      </c>
+      <c r="J58">
+        <v>8265</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>28089</v>
+      </c>
+      <c r="O58">
+        <v>43764</v>
+      </c>
+      <c r="P58">
+        <v>14009</v>
+      </c>
+      <c r="Q58">
+        <v>9299</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>154100</v>
+      </c>
+      <c r="T58">
+        <v>10741</v>
+      </c>
+      <c r="U58">
+        <v>14557</v>
+      </c>
+      <c r="V58">
+        <v>6715</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>5209</v>
+      </c>
+      <c r="Y58">
+        <v>4224</v>
+      </c>
+      <c r="Z58">
+        <v>-1267</v>
+      </c>
+      <c r="AA58">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-57</v>
+      </c>
+      <c r="D59">
+        <v>22717</v>
+      </c>
+      <c r="E59">
+        <v>4772</v>
+      </c>
+      <c r="F59">
+        <v>7322</v>
+      </c>
+      <c r="G59">
+        <v>25922</v>
+      </c>
+      <c r="H59">
+        <v>50075</v>
+      </c>
+      <c r="I59">
+        <v>11917</v>
+      </c>
+      <c r="J59">
+        <v>8257</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-857</v>
+      </c>
+      <c r="N59">
+        <v>23177</v>
+      </c>
+      <c r="O59">
+        <v>39202</v>
+      </c>
+      <c r="P59">
+        <v>17031</v>
+      </c>
+      <c r="Q59">
+        <v>-4320</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>10873</v>
+      </c>
+      <c r="U59">
+        <v>10237</v>
+      </c>
+      <c r="V59">
+        <v>-1499</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-652</v>
+      </c>
+      <c r="Y59">
+        <v>5552</v>
+      </c>
+      <c r="Z59">
+        <v>-611</v>
+      </c>
+      <c r="AA59">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>92</v>
+      </c>
+      <c r="D60">
+        <v>23185</v>
+      </c>
+      <c r="E60">
+        <v>4920</v>
+      </c>
+      <c r="F60">
+        <v>8025</v>
+      </c>
+      <c r="G60">
+        <v>26391</v>
+      </c>
+      <c r="H60">
+        <v>52440</v>
+      </c>
+      <c r="I60">
+        <v>12391</v>
+      </c>
+      <c r="J60">
+        <v>8250</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>-830</v>
+      </c>
+      <c r="N60">
+        <v>23912</v>
+      </c>
+      <c r="O60">
+        <v>40672</v>
+      </c>
+      <c r="P60">
+        <v>17953</v>
+      </c>
+      <c r="Q60">
+        <v>32</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>11768</v>
+      </c>
+      <c r="U60">
+        <v>10269</v>
+      </c>
+      <c r="V60">
+        <v>1997</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-691</v>
+      </c>
+      <c r="Y60">
+        <v>6892</v>
+      </c>
+      <c r="Z60">
+        <v>-155</v>
+      </c>
+      <c r="AA60">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>79</v>
+      </c>
+      <c r="D61">
+        <v>25358</v>
+      </c>
+      <c r="E61">
+        <v>5440</v>
+      </c>
+      <c r="F61">
+        <v>8603</v>
+      </c>
+      <c r="G61">
+        <v>28849</v>
+      </c>
+      <c r="H61">
+        <v>56230</v>
+      </c>
+      <c r="I61">
+        <v>14437</v>
+      </c>
+      <c r="J61">
+        <v>8243</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>-858</v>
+      </c>
+      <c r="N61">
+        <v>26657</v>
+      </c>
+      <c r="O61">
+        <v>43800</v>
+      </c>
+      <c r="P61">
+        <v>18587</v>
+      </c>
+      <c r="Q61">
+        <v>440</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>12430</v>
+      </c>
+      <c r="U61">
+        <v>10709</v>
+      </c>
+      <c r="V61">
+        <v>2610</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-730</v>
+      </c>
+      <c r="Y61">
+        <v>8458</v>
+      </c>
+      <c r="Z61">
+        <v>-77</v>
+      </c>
+      <c r="AA61">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>482</v>
+      </c>
+      <c r="D62">
+        <v>35747</v>
+      </c>
+      <c r="E62">
+        <v>5654</v>
+      </c>
+      <c r="F62">
+        <v>11406</v>
+      </c>
+      <c r="G62">
+        <v>35705</v>
+      </c>
+      <c r="H62">
+        <v>64747</v>
+      </c>
+      <c r="I62">
+        <v>20397</v>
+      </c>
+      <c r="J62">
+        <v>8227</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>33887</v>
+      </c>
+      <c r="O62">
+        <v>51363</v>
+      </c>
+      <c r="P62">
+        <v>17512</v>
+      </c>
+      <c r="Q62">
+        <v>5181</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>230800</v>
+      </c>
+      <c r="T62">
+        <v>13384</v>
+      </c>
+      <c r="U62">
+        <v>15890</v>
+      </c>
+      <c r="V62">
+        <v>8812</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-1690</v>
+      </c>
+      <c r="Y62">
+        <v>5948</v>
+      </c>
+      <c r="Z62">
+        <v>-224</v>
+      </c>
+      <c r="AA62">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>513</v>
+      </c>
+      <c r="D63">
+        <v>29128</v>
+      </c>
+      <c r="E63">
+        <v>5072</v>
+      </c>
+      <c r="F63">
+        <v>10262</v>
+      </c>
+      <c r="G63">
+        <v>30513</v>
+      </c>
+      <c r="H63">
+        <v>61128</v>
+      </c>
+      <c r="I63">
+        <v>14990</v>
+      </c>
+      <c r="J63">
+        <v>8219</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-1005</v>
+      </c>
+      <c r="N63">
+        <v>28187</v>
+      </c>
+      <c r="O63">
+        <v>46372</v>
+      </c>
+      <c r="P63">
+        <v>17612</v>
+      </c>
+      <c r="Q63">
+        <v>-3420</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>14756</v>
+      </c>
+      <c r="U63">
+        <v>12470</v>
+      </c>
+      <c r="V63">
+        <v>-1953</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-996</v>
+      </c>
+      <c r="Y63">
+        <v>6000</v>
+      </c>
+      <c r="Z63">
+        <v>502</v>
+      </c>
+      <c r="AA63">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>857</v>
+      </c>
+      <c r="D64">
+        <v>30404</v>
+      </c>
+      <c r="E64">
+        <v>6092</v>
+      </c>
+      <c r="F64">
+        <v>11224</v>
+      </c>
+      <c r="G64">
+        <v>32220</v>
+      </c>
+      <c r="H64">
+        <v>65076</v>
+      </c>
+      <c r="I64">
+        <v>16123</v>
+      </c>
+      <c r="J64">
+        <v>8212</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>-1218</v>
+      </c>
+      <c r="N64">
+        <v>29587</v>
+      </c>
+      <c r="O64">
+        <v>48538</v>
+      </c>
+      <c r="P64">
+        <v>17860</v>
+      </c>
+      <c r="Q64">
+        <v>51</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>16538</v>
+      </c>
+      <c r="U64">
+        <v>12521</v>
+      </c>
+      <c r="V64">
+        <v>3578</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-1152</v>
+      </c>
+      <c r="Y64">
+        <v>6100</v>
+      </c>
+      <c r="Z64">
+        <v>-714</v>
+      </c>
+      <c r="AA64">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>252</v>
+      </c>
+      <c r="D65">
+        <v>32714</v>
+      </c>
+      <c r="E65">
+        <v>6566</v>
+      </c>
+      <c r="F65">
+        <v>11454</v>
+      </c>
+      <c r="G65">
+        <v>35609</v>
+      </c>
+      <c r="H65">
+        <v>70897</v>
+      </c>
+      <c r="I65">
+        <v>18801</v>
+      </c>
+      <c r="J65">
+        <v>8205</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>-1008</v>
+      </c>
+      <c r="N65">
+        <v>33498</v>
+      </c>
+      <c r="O65">
+        <v>53115</v>
+      </c>
+      <c r="P65">
+        <v>18988</v>
+      </c>
+      <c r="Q65">
+        <v>1135</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>17782</v>
+      </c>
+      <c r="U65">
+        <v>13656</v>
+      </c>
+      <c r="V65">
+        <v>4659</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-1000</v>
+      </c>
+      <c r="Y65">
+        <v>6900</v>
+      </c>
+      <c r="Z65">
+        <v>-645</v>
+      </c>
+      <c r="AA65">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>749</v>
+      </c>
+      <c r="D66">
+        <v>43741</v>
+      </c>
+      <c r="E66">
+        <v>8339</v>
+      </c>
+      <c r="F66">
+        <v>14782</v>
+      </c>
+      <c r="G66">
+        <v>45781</v>
+      </c>
+      <c r="H66">
+        <v>83402</v>
+      </c>
+      <c r="I66">
+        <v>25309</v>
+      </c>
+      <c r="J66">
+        <v>7694</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>43816</v>
+      </c>
+      <c r="O66">
+        <v>64117</v>
+      </c>
+      <c r="P66">
+        <v>20413</v>
+      </c>
+      <c r="Q66">
+        <v>5678</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>341400</v>
+      </c>
+      <c r="T66">
+        <v>19285</v>
+      </c>
+      <c r="U66">
+        <v>19334</v>
+      </c>
+      <c r="V66">
+        <v>10988</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-592</v>
+      </c>
+      <c r="Y66">
+        <v>7519</v>
+      </c>
+      <c r="Z66">
+        <v>-2165</v>
+      </c>
+      <c r="AA66">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>724</v>
+      </c>
+      <c r="D67">
+        <v>35714</v>
+      </c>
+      <c r="E67">
+        <v>7329</v>
+      </c>
+      <c r="F67">
+        <v>13274</v>
+      </c>
+      <c r="G67">
+        <v>39460</v>
+      </c>
+      <c r="H67">
+        <v>80969</v>
+      </c>
+      <c r="I67">
+        <v>18891</v>
+      </c>
+      <c r="J67">
+        <v>7691</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-909</v>
+      </c>
+      <c r="N67">
+        <v>37399</v>
+      </c>
+      <c r="O67">
+        <v>59295</v>
+      </c>
+      <c r="P67">
+        <v>21599</v>
+      </c>
+      <c r="Q67">
+        <v>-3633</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>21674</v>
+      </c>
+      <c r="U67">
+        <v>15440</v>
+      </c>
+      <c r="V67">
+        <v>-1619</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>-888</v>
+      </c>
+      <c r="Y67">
+        <v>8300</v>
+      </c>
+      <c r="Z67">
+        <v>556</v>
+      </c>
+      <c r="AA67">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>197</v>
+      </c>
+      <c r="D68">
+        <v>37955</v>
+      </c>
+      <c r="E68">
+        <v>8046</v>
+      </c>
+      <c r="F68">
+        <v>14504</v>
+      </c>
+      <c r="G68">
+        <v>41007</v>
+      </c>
+      <c r="H68">
+        <v>87781</v>
+      </c>
+      <c r="I68">
+        <v>21439</v>
+      </c>
+      <c r="J68">
+        <v>7683</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>-1323</v>
+      </c>
+      <c r="N68">
+        <v>40520</v>
+      </c>
+      <c r="O68">
+        <v>64567</v>
+      </c>
+      <c r="P68">
+        <v>23619</v>
+      </c>
+      <c r="Q68">
+        <v>-2450</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>23214</v>
+      </c>
+      <c r="U68">
+        <v>13203</v>
+      </c>
+      <c r="V68">
+        <v>3850</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-1274</v>
+      </c>
+      <c r="Y68">
+        <v>9800</v>
+      </c>
+      <c r="Z68">
+        <v>-2140</v>
+      </c>
+      <c r="AA68">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>256</v>
+      </c>
+      <c r="D69">
+        <v>43744</v>
+      </c>
+      <c r="E69">
+        <v>10557</v>
+      </c>
+      <c r="F69">
+        <v>16195</v>
+      </c>
+      <c r="G69">
+        <v>48578</v>
+      </c>
+      <c r="H69">
+        <v>115267</v>
+      </c>
+      <c r="I69">
+        <v>26075</v>
+      </c>
+      <c r="J69">
+        <v>24710</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-1387</v>
+      </c>
+      <c r="N69">
+        <v>47072</v>
+      </c>
+      <c r="O69">
+        <v>90609</v>
+      </c>
+      <c r="P69">
+        <v>43186</v>
+      </c>
+      <c r="Q69">
+        <v>109</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>24658</v>
+      </c>
+      <c r="U69">
+        <v>12767</v>
+      </c>
+      <c r="V69">
+        <v>3777</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>14662</v>
+      </c>
+      <c r="Y69">
+        <v>11900</v>
+      </c>
+      <c r="Z69">
+        <v>-2606</v>
+      </c>
+      <c r="AA69">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>1857</v>
+      </c>
+      <c r="D70">
+        <v>60453</v>
+      </c>
+      <c r="E70">
+        <v>9000</v>
+      </c>
+      <c r="F70">
+        <v>21958</v>
+      </c>
+      <c r="G70">
+        <v>60197</v>
+      </c>
+      <c r="H70">
+        <v>131310</v>
+      </c>
+      <c r="I70">
+        <v>34616</v>
+      </c>
+      <c r="J70">
+        <v>24743</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>57883</v>
+      </c>
+      <c r="O70">
+        <v>103601</v>
+      </c>
+      <c r="P70">
+        <v>44108</v>
+      </c>
+      <c r="Q70">
+        <v>7896</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>566000</v>
+      </c>
+      <c r="T70">
+        <v>27709</v>
+      </c>
+      <c r="U70">
+        <v>20522</v>
+      </c>
+      <c r="V70">
+        <v>12358</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-2571</v>
+      </c>
+      <c r="Y70">
+        <v>13183</v>
+      </c>
+      <c r="Z70">
+        <v>1136</v>
+      </c>
+      <c r="AA70">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1629</v>
+      </c>
+      <c r="D71">
+        <v>51042</v>
+      </c>
+      <c r="E71">
+        <v>6300</v>
+      </c>
+      <c r="F71">
+        <v>20307</v>
+      </c>
+      <c r="G71">
+        <v>50829</v>
+      </c>
+      <c r="H71">
+        <v>126362</v>
+      </c>
+      <c r="I71">
+        <v>25172</v>
+      </c>
+      <c r="J71">
+        <v>24640</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-2289</v>
+      </c>
+      <c r="N71">
+        <v>48045</v>
+      </c>
+      <c r="O71">
+        <v>94899</v>
+      </c>
+      <c r="P71">
+        <v>44487</v>
+      </c>
+      <c r="Q71">
+        <v>-4240</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>31463</v>
+      </c>
+      <c r="U71">
+        <v>16676</v>
+      </c>
+      <c r="V71">
+        <v>-1791</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-2164</v>
+      </c>
+      <c r="Y71">
+        <v>13300</v>
+      </c>
+      <c r="Z71">
+        <v>2207</v>
+      </c>
+      <c r="AA71">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>2534</v>
+      </c>
+      <c r="D72">
+        <v>52886</v>
+      </c>
+      <c r="E72">
+        <v>6900</v>
+      </c>
+      <c r="F72">
+        <v>22254</v>
+      </c>
+      <c r="G72">
+        <v>54481</v>
+      </c>
+      <c r="H72">
+        <v>134100</v>
+      </c>
+      <c r="I72">
+        <v>27657</v>
+      </c>
+      <c r="J72">
+        <v>24638</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>-1490</v>
+      </c>
+      <c r="N72">
+        <v>50801</v>
+      </c>
+      <c r="O72">
+        <v>99105</v>
+      </c>
+      <c r="P72">
+        <v>45789</v>
+      </c>
+      <c r="Q72">
+        <v>2920</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>34995</v>
+      </c>
+      <c r="U72">
+        <v>19823</v>
+      </c>
+      <c r="V72">
+        <v>7449</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-1394</v>
+      </c>
+      <c r="Y72">
+        <v>14200</v>
+      </c>
+      <c r="Z72">
+        <v>1123</v>
+      </c>
+      <c r="AA72">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>2883</v>
+      </c>
+      <c r="D73">
+        <v>56576</v>
+      </c>
+      <c r="E73">
+        <v>10500</v>
+      </c>
+      <c r="F73">
+        <v>23573</v>
+      </c>
+      <c r="G73">
+        <v>59885</v>
+      </c>
+      <c r="H73">
+        <v>143695</v>
+      </c>
+      <c r="I73">
+        <v>30904</v>
+      </c>
+      <c r="J73">
+        <v>24684</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>-2512</v>
+      </c>
+      <c r="N73">
+        <v>55324</v>
+      </c>
+      <c r="O73">
+        <v>104570</v>
+      </c>
+      <c r="P73">
+        <v>47219</v>
+      </c>
+      <c r="Q73">
+        <v>496</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>39125</v>
+      </c>
+      <c r="U73">
+        <v>20425</v>
+      </c>
+      <c r="V73">
+        <v>8588</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-2369</v>
+      </c>
+      <c r="Y73">
+        <v>15200</v>
+      </c>
+      <c r="Z73">
+        <v>-2069</v>
+      </c>
+      <c r="AA73">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>3027</v>
+      </c>
+      <c r="D74">
+        <v>72383</v>
+      </c>
+      <c r="E74">
+        <v>12600</v>
+      </c>
+      <c r="F74">
+        <v>27597</v>
+      </c>
+      <c r="G74">
+        <v>75101</v>
+      </c>
+      <c r="H74">
+        <v>162648</v>
+      </c>
+      <c r="I74">
+        <v>38192</v>
+      </c>
+      <c r="J74">
+        <v>23495</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>68391</v>
+      </c>
+      <c r="O74">
+        <v>119099</v>
+      </c>
+      <c r="P74">
+        <v>34516</v>
+      </c>
+      <c r="Q74">
+        <v>11141</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>647500</v>
+      </c>
+      <c r="T74">
+        <v>43549</v>
+      </c>
+      <c r="U74">
+        <v>31750</v>
+      </c>
+      <c r="V74">
+        <v>16477</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-1761</v>
+      </c>
+      <c r="Y74">
+        <v>9650</v>
+      </c>
+      <c r="Z74">
+        <v>-121</v>
+      </c>
+      <c r="AA74">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>3561</v>
+      </c>
+      <c r="D75">
+        <v>59700</v>
+      </c>
+      <c r="E75">
+        <v>12300</v>
+      </c>
+      <c r="F75">
+        <v>25780</v>
+      </c>
+      <c r="G75">
+        <v>69431</v>
+      </c>
+      <c r="H75">
+        <v>178102</v>
+      </c>
+      <c r="I75">
+        <v>31809</v>
+      </c>
+      <c r="J75">
+        <v>23322</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-2567</v>
+      </c>
+      <c r="N75">
+        <v>63695</v>
+      </c>
+      <c r="O75">
+        <v>129692</v>
+      </c>
+      <c r="P75">
+        <v>69005</v>
+      </c>
+      <c r="Q75">
+        <v>-8666</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>48410</v>
+      </c>
+      <c r="U75">
+        <v>23115</v>
+      </c>
+      <c r="V75">
+        <v>1846</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-2377</v>
+      </c>
+      <c r="Y75">
+        <v>33275</v>
+      </c>
+      <c r="Z75">
+        <v>-4233</v>
+      </c>
+      <c r="AA75">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>2625</v>
+      </c>
+      <c r="D76">
+        <v>63404</v>
+      </c>
+      <c r="E76">
+        <v>13200</v>
+      </c>
+      <c r="F76">
+        <v>27067</v>
+      </c>
+      <c r="G76">
+        <v>76790</v>
+      </c>
+      <c r="H76">
+        <v>191351</v>
+      </c>
+      <c r="I76">
+        <v>36063</v>
+      </c>
+      <c r="J76">
+        <v>23329</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>-73</v>
+      </c>
+      <c r="M76">
+        <v>-2368</v>
+      </c>
+      <c r="N76">
+        <v>69678</v>
+      </c>
+      <c r="O76">
+        <v>138290</v>
+      </c>
+      <c r="P76">
+        <v>71614</v>
+      </c>
+      <c r="Q76">
+        <v>-542</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>53061</v>
+      </c>
+      <c r="U76">
+        <v>22616</v>
+      </c>
+      <c r="V76">
+        <v>9118</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-2158</v>
+      </c>
+      <c r="Y76">
+        <v>35134</v>
+      </c>
+      <c r="Z76">
+        <v>-4789</v>
+      </c>
+      <c r="AA76">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>2134</v>
+      </c>
+      <c r="D77">
+        <v>69981</v>
+      </c>
+      <c r="E77">
+        <v>13100</v>
+      </c>
+      <c r="F77">
+        <v>28679</v>
+      </c>
+      <c r="G77">
+        <v>79054</v>
+      </c>
+      <c r="H77">
+        <v>199099</v>
+      </c>
+      <c r="I77">
+        <v>35794</v>
+      </c>
+      <c r="J77">
+        <v>22472</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>-341</v>
+      </c>
+      <c r="M77">
+        <v>-2321</v>
+      </c>
+      <c r="N77">
+        <v>72136</v>
+      </c>
+      <c r="O77">
+        <v>142591</v>
+      </c>
+      <c r="P77">
+        <v>74591</v>
+      </c>
+      <c r="Q77">
+        <v>589</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>56508</v>
+      </c>
+      <c r="U77">
+        <v>23255</v>
+      </c>
+      <c r="V77">
+        <v>7892</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-1960</v>
+      </c>
+      <c r="Y77">
+        <v>37058</v>
+      </c>
+      <c r="Z77">
+        <v>-1291</v>
+      </c>
+      <c r="AA77">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>3268</v>
+      </c>
+      <c r="D78">
+        <v>87436</v>
+      </c>
+      <c r="E78">
+        <v>16800</v>
+      </c>
+      <c r="F78">
+        <v>33459</v>
+      </c>
+      <c r="G78">
+        <v>96334</v>
+      </c>
+      <c r="H78">
+        <v>225248</v>
+      </c>
+      <c r="I78">
+        <v>47183</v>
+      </c>
+      <c r="J78">
+        <v>23414</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>87812</v>
+      </c>
+      <c r="O78">
+        <v>163188</v>
+      </c>
+      <c r="P78">
+        <v>77533</v>
+      </c>
+      <c r="Q78">
+        <v>12856</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>798000</v>
+      </c>
+      <c r="T78">
+        <v>62060</v>
+      </c>
+      <c r="U78">
+        <v>36092</v>
+      </c>
+      <c r="V78">
+        <v>19659</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-3571</v>
+      </c>
+      <c r="Y78">
+        <v>39791</v>
+      </c>
+      <c r="Z78">
+        <v>1181</v>
+      </c>
+      <c r="AA78">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>2535</v>
+      </c>
+      <c r="D79">
+        <v>75452</v>
+      </c>
+      <c r="E79">
+        <v>14000</v>
+      </c>
+      <c r="F79">
+        <v>31195</v>
+      </c>
+      <c r="G79">
+        <v>85985</v>
+      </c>
+      <c r="H79">
+        <v>221238</v>
+      </c>
+      <c r="I79">
+        <v>40056</v>
+      </c>
+      <c r="J79">
+        <v>23437</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-3284</v>
+      </c>
+      <c r="N79">
+        <v>79711</v>
+      </c>
+      <c r="O79">
+        <v>155966</v>
+      </c>
+      <c r="P79">
+        <v>78151</v>
+      </c>
+      <c r="Q79">
+        <v>-8905</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>65272</v>
+      </c>
+      <c r="U79">
+        <v>27201</v>
+      </c>
+      <c r="V79">
+        <v>3064</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-2591</v>
+      </c>
+      <c r="Y79">
+        <v>40300</v>
+      </c>
+      <c r="Z79">
+        <v>-3375</v>
+      </c>
+      <c r="AA79">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>5243</v>
+      </c>
+      <c r="D80">
+        <v>88912</v>
+      </c>
+      <c r="E80">
+        <v>15300</v>
+      </c>
+      <c r="F80">
+        <v>36252</v>
+      </c>
+      <c r="G80">
+        <v>110908</v>
+      </c>
+      <c r="H80">
+        <v>258314</v>
+      </c>
+      <c r="I80">
+        <v>51036</v>
+      </c>
+      <c r="J80">
+        <v>33128</v>
+      </c>
+      <c r="K80">
+        <v>730</v>
+      </c>
+      <c r="L80">
+        <v>-1906</v>
+      </c>
+      <c r="M80">
+        <v>-3037</v>
+      </c>
+      <c r="N80">
+        <v>93896</v>
+      </c>
+      <c r="O80">
+        <v>184586</v>
+      </c>
+      <c r="P80">
+        <v>91401</v>
+      </c>
+      <c r="Q80">
+        <v>10337</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>73728</v>
+      </c>
+      <c r="U80">
+        <v>37466</v>
+      </c>
+      <c r="V80">
+        <v>20606</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>7408</v>
+      </c>
+      <c r="Y80">
+        <v>42798</v>
+      </c>
+      <c r="Z80">
+        <v>-11071</v>
+      </c>
+      <c r="AA80">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>6331</v>
+      </c>
+      <c r="D81">
+        <v>96145</v>
+      </c>
+      <c r="E81">
+        <v>16400</v>
+      </c>
+      <c r="F81">
+        <v>39039</v>
+      </c>
+      <c r="G81">
+        <v>112969</v>
+      </c>
+      <c r="H81">
+        <v>282179</v>
+      </c>
+      <c r="I81">
+        <v>58334</v>
+      </c>
+      <c r="J81">
+        <v>32929</v>
+      </c>
+      <c r="K81">
+        <v>725</v>
+      </c>
+      <c r="L81">
+        <v>-1349</v>
+      </c>
+      <c r="M81">
+        <v>-4067</v>
+      </c>
+      <c r="N81">
+        <v>101912</v>
+      </c>
+      <c r="O81">
+        <v>199404</v>
+      </c>
+      <c r="P81">
+        <v>96814</v>
+      </c>
+      <c r="Q81">
+        <v>-7640</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>82775</v>
+      </c>
+      <c r="U81">
+        <v>29930</v>
+      </c>
+      <c r="V81">
+        <v>11964</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-4105</v>
+      </c>
+      <c r="Y81">
+        <v>48589</v>
+      </c>
+      <c r="Z81">
+        <v>-4333</v>
+      </c>
+      <c r="AA81">
+        <v>6331</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>7222</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>125555</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>19600</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>46271</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>132733</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>321195</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>72539</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>31816</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>725</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>126385</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>227791</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>101229</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>12175</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>1298000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>93404</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>42122</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>30431</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-1816</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>52573</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-3463</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>7222</v>
       </c>
     </row>
